--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -435,9 +435,6 @@
     <t>Write a program to Detect loop in a linked list.</t>
   </si>
   <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
     <t>Find the starting point of the loop. </t>
   </si>
   <si>
@@ -1417,6 +1414,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Write a program to  Remove loop in a linked list.</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="2" spans="2:4">
       <c r="C2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21">
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="21">
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21">
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21">
@@ -2012,7 +2012,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21">
@@ -2100,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="21">
@@ -3335,7 +3335,7 @@
         <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>138</v>
+        <v>465</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>4</v>
@@ -3349,7 +3349,7 @@
         <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>4</v>
@@ -3363,7 +3363,7 @@
         <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>4</v>
@@ -3377,7 +3377,7 @@
         <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>4</v>
@@ -3391,7 +3391,7 @@
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
@@ -3405,7 +3405,7 @@
         <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>4</v>
@@ -3419,7 +3419,7 @@
         <v>134</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>4</v>
@@ -3433,7 +3433,7 @@
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>4</v>
@@ -3447,7 +3447,7 @@
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>4</v>
@@ -3461,7 +3461,7 @@
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>4</v>
@@ -3475,7 +3475,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>4</v>
@@ -3489,7 +3489,7 @@
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>4</v>
@@ -3503,7 +3503,7 @@
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>4</v>
@@ -3517,7 +3517,7 @@
         <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>4</v>
@@ -3531,7 +3531,7 @@
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>4</v>
@@ -3545,7 +3545,7 @@
         <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>4</v>
@@ -3559,7 +3559,7 @@
         <v>134</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         <v>134</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>4</v>
@@ -3587,7 +3587,7 @@
         <v>134</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>4</v>
@@ -3601,7 +3601,7 @@
         <v>134</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>4</v>
@@ -3615,7 +3615,7 @@
         <v>134</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>4</v>
@@ -3629,7 +3629,7 @@
         <v>134</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>4</v>
@@ -3643,7 +3643,7 @@
         <v>134</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>4</v>
@@ -3657,7 +3657,7 @@
         <v>134</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>4</v>
@@ -3671,7 +3671,7 @@
         <v>134</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>4</v>
@@ -3685,7 +3685,7 @@
         <v>134</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>4</v>
@@ -3699,7 +3699,7 @@
         <v>134</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>4</v>
@@ -3713,7 +3713,7 @@
         <v>134</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         <v>134</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         <v>134</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>4</v>
@@ -3755,7 +3755,7 @@
         <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>4</v>
@@ -3769,7 +3769,7 @@
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>4</v>
@@ -3783,7 +3783,7 @@
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>4</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="177" spans="2:4" ht="21">
       <c r="B177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>4</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="178" spans="2:4" ht="21">
       <c r="B178" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>4</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="179" spans="2:4" ht="21">
       <c r="B179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="180" spans="2:4" ht="21">
       <c r="B180" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>4</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="181" spans="2:4" ht="21">
       <c r="B181" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="182" spans="2:4" ht="21">
       <c r="B182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>4</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="183" spans="2:4" ht="21">
       <c r="B183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>4</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="184" spans="2:4" ht="21">
       <c r="B184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="185" spans="2:4" ht="21">
       <c r="B185" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>4</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="186" spans="2:4" ht="21">
       <c r="B186" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>4</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="187" spans="2:4" ht="21">
       <c r="B187" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="188" spans="2:4" ht="21">
       <c r="B188" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="189" spans="2:4" ht="21">
       <c r="B189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>4</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="190" spans="2:4" ht="21">
       <c r="B190" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>4</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="191" spans="2:4" ht="21">
       <c r="B191" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="192" spans="2:4" ht="21">
       <c r="B192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="193" spans="2:4" ht="21">
       <c r="B193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>4</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="194" spans="2:4" ht="21">
       <c r="B194" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>4</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="195" spans="2:4" ht="21">
       <c r="B195" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>4</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="196" spans="2:4" ht="21">
       <c r="B196" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>4</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="197" spans="2:4" ht="21">
       <c r="B197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>4</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="198" spans="2:4" ht="21">
       <c r="B198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>4</v>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="199" spans="2:4" ht="21">
       <c r="B199" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>4</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="200" spans="2:4" ht="21">
       <c r="B200" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>4</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="201" spans="2:4" ht="21">
       <c r="B201" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="202" spans="2:4" ht="21">
       <c r="B202" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>4</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="203" spans="2:4" ht="21">
       <c r="B203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>4</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="204" spans="2:4" ht="21">
       <c r="B204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>4</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="205" spans="2:4" ht="21">
       <c r="B205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="206" spans="2:4" ht="21">
       <c r="B206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>4</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="207" spans="2:4" ht="21">
       <c r="B207" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>4</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="208" spans="2:4" ht="21">
       <c r="B208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>4</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="209" spans="2:4" ht="21">
       <c r="B209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>4</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="210" spans="2:4" ht="21">
       <c r="B210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>4</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="211" spans="2:4" ht="21">
       <c r="B211" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>4</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="214" spans="2:4" ht="21">
       <c r="B214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>4</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="215" spans="2:4" ht="21">
       <c r="B215" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="216" spans="2:4" ht="21">
       <c r="B216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>4</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="217" spans="2:4" ht="21">
       <c r="B217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>4</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="218" spans="2:4" ht="21">
       <c r="B218" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>4</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="219" spans="2:4" ht="21">
       <c r="B219" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="220" spans="2:4" ht="21">
       <c r="B220" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="221" spans="2:4" ht="21">
       <c r="B221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>4</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="222" spans="2:4" ht="21">
       <c r="B222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="223" spans="2:4" ht="21">
       <c r="B223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="224" spans="2:4" ht="21">
       <c r="B224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="225" spans="2:4" ht="21">
       <c r="B225" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="226" spans="2:4" ht="21">
       <c r="B226" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="227" spans="2:4" ht="21">
       <c r="B227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="228" spans="2:4" ht="21">
       <c r="B228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="229" spans="2:4" ht="21">
       <c r="B229" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="230" spans="2:4" ht="21">
       <c r="B230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="231" spans="2:4" ht="21">
       <c r="B231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="232" spans="2:4" ht="21">
       <c r="B232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="233" spans="2:4" ht="21">
       <c r="B233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="234" spans="2:4" ht="21">
       <c r="B234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="235" spans="2:4" ht="21">
       <c r="B235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="238" spans="2:4" ht="21">
       <c r="B238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>4</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="239" spans="2:4" ht="21">
       <c r="B239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="240" spans="2:4" ht="21">
       <c r="B240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="241" spans="2:4" ht="21">
       <c r="B241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="242" spans="2:4" ht="21">
       <c r="B242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="243" spans="2:4" ht="21">
       <c r="B243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="244" spans="2:4" ht="21">
       <c r="B244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="245" spans="2:4" ht="21">
       <c r="B245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="246" spans="2:4" ht="21">
       <c r="B246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="247" spans="2:4" ht="21">
       <c r="B247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="248" spans="2:4" ht="21">
       <c r="B248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="249" spans="2:4" ht="21">
       <c r="B249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="250" spans="2:4" ht="21">
       <c r="B250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="251" spans="2:4" ht="21">
       <c r="B251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="252" spans="2:4" ht="21">
       <c r="B252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="253" spans="2:4" ht="21">
       <c r="B253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="254" spans="2:4" ht="21">
       <c r="B254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="255" spans="2:4" ht="21">
       <c r="B255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="256" spans="2:4" ht="21">
       <c r="B256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="257" spans="2:4" ht="21">
       <c r="B257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="258" spans="2:4" ht="21">
       <c r="B258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="259" spans="2:4" ht="21">
       <c r="B259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="260" spans="2:4" ht="21">
       <c r="B260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="261" spans="2:4" ht="21">
       <c r="B261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="262" spans="2:4" ht="21">
       <c r="B262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="263" spans="2:4" ht="21">
       <c r="B263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="264" spans="2:4" ht="21">
       <c r="B264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="265" spans="2:4" ht="21">
       <c r="B265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="266" spans="2:4" ht="21">
       <c r="B266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="267" spans="2:4" ht="21">
       <c r="B267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="268" spans="2:4" ht="21">
       <c r="B268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="269" spans="2:4" ht="21">
       <c r="B269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="270" spans="2:4" ht="21">
       <c r="B270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="271" spans="2:4" ht="21">
       <c r="B271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>87</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="272" spans="2:4" ht="21">
       <c r="B272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>4</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="275" spans="2:4" ht="21">
       <c r="B275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>4</v>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="276" spans="2:4" ht="21">
       <c r="B276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="277" spans="2:4" ht="21">
       <c r="B277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="278" spans="2:4" ht="21">
       <c r="B278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -4877,10 +4877,10 @@
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="280" spans="2:4" ht="21">
       <c r="B280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="281" spans="2:4" ht="21">
       <c r="B281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="282" spans="2:4" ht="21">
       <c r="B282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -4921,10 +4921,10 @@
     </row>
     <row r="283" spans="2:4" ht="21">
       <c r="B283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="284" spans="2:4" ht="21">
       <c r="B284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="285" spans="2:4" ht="21">
       <c r="B285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="286" spans="2:4" ht="21">
       <c r="B286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -4965,10 +4965,10 @@
     </row>
     <row r="287" spans="2:4" ht="21">
       <c r="B287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="288" spans="2:4" ht="21">
       <c r="B288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="289" spans="2:4" ht="21">
       <c r="B289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -4998,10 +4998,10 @@
     </row>
     <row r="290" spans="2:4" ht="21">
       <c r="B290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="291" spans="2:4" ht="21">
       <c r="B291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -5020,10 +5020,10 @@
     </row>
     <row r="292" spans="2:4" ht="21">
       <c r="B292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -5031,10 +5031,10 @@
     </row>
     <row r="293" spans="2:4" ht="21">
       <c r="B293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>4</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="296" spans="2:4" ht="21">
       <c r="B296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>4</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="297" spans="2:4" ht="21">
       <c r="B297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="298" spans="2:4" ht="21">
       <c r="B298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="299" spans="2:4" ht="21">
       <c r="B299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="300" spans="2:4" ht="21">
       <c r="B300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="301" spans="2:4" ht="21">
       <c r="B301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="302" spans="2:4" ht="21">
       <c r="B302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="303" spans="2:4" ht="21">
       <c r="B303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="304" spans="2:4" ht="21">
       <c r="B304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="305" spans="2:4" ht="21">
       <c r="B305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="306" spans="2:4" ht="21">
       <c r="B306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="307" spans="2:4" ht="21">
       <c r="B307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="308" spans="2:4" ht="21">
       <c r="B308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="309" spans="2:4" ht="21">
       <c r="B309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="310" spans="2:4" ht="21">
       <c r="B310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="311" spans="2:4" ht="21">
       <c r="B311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="312" spans="2:4" ht="21">
       <c r="B312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="313" spans="2:4" ht="21">
       <c r="B313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="314" spans="2:4" ht="21">
       <c r="B314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="315" spans="2:4" ht="21">
       <c r="B315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="316" spans="2:4" ht="21">
       <c r="B316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="317" spans="2:4" ht="21">
       <c r="B317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="318" spans="2:4" ht="21">
       <c r="B318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="319" spans="2:4" ht="21">
       <c r="B319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="320" spans="2:4" ht="21">
       <c r="B320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="321" spans="2:4" ht="21">
       <c r="B321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="322" spans="2:4" ht="21">
       <c r="B322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="323" spans="2:4" ht="21">
       <c r="B323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="324" spans="2:4" ht="21">
       <c r="B324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="325" spans="2:4" ht="21">
       <c r="B325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="326" spans="2:4" ht="21">
       <c r="B326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="327" spans="2:4" ht="21">
       <c r="B327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="328" spans="2:4" ht="21">
       <c r="B328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="329" spans="2:4" ht="21">
       <c r="B329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="330" spans="2:4" ht="21">
       <c r="B330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="331" spans="2:4" ht="21">
       <c r="B331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="332" spans="2:4" ht="21">
       <c r="B332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="333" spans="2:4" ht="21">
       <c r="B333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>4</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="336" spans="2:4" ht="21">
       <c r="B336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>4</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="337" spans="2:4" ht="21">
       <c r="B337" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="338" spans="2:4" ht="21">
       <c r="B338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="339" spans="2:4" ht="21">
       <c r="B339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="340" spans="2:4" ht="21">
       <c r="B340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="341" spans="2:4" ht="21">
       <c r="B341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="342" spans="2:4" ht="21">
       <c r="B342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="343" spans="2:4" ht="21">
       <c r="B343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="344" spans="2:4" ht="21">
       <c r="B344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="345" spans="2:4" ht="21">
       <c r="B345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -5586,10 +5586,10 @@
     </row>
     <row r="346" spans="2:4" ht="21">
       <c r="B346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="347" spans="2:4" ht="21">
       <c r="B347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="348" spans="2:4" ht="21">
       <c r="B348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="349" spans="2:4" ht="21">
       <c r="B349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="350" spans="2:4" ht="21">
       <c r="B350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="351" spans="2:4" ht="21">
       <c r="B351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="352" spans="2:4" ht="21">
       <c r="B352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="353" spans="2:4" ht="21">
       <c r="B353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>4</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="356" spans="2:4" ht="21">
       <c r="B356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>4</v>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="357" spans="2:4" ht="21">
       <c r="B357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="358" spans="2:4" ht="21">
       <c r="B358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="359" spans="2:4" ht="21">
       <c r="B359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="360" spans="2:4" ht="21">
       <c r="B360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="361" spans="2:4" ht="21">
       <c r="B361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="362" spans="2:4" ht="21">
       <c r="B362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="363" spans="2:4" ht="21">
       <c r="B363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="364" spans="2:4" ht="21">
       <c r="B364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="365" spans="2:4" ht="21">
       <c r="B365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="366" spans="2:4" ht="21">
       <c r="B366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="367" spans="2:4" ht="21">
       <c r="B367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="368" spans="2:4" ht="21">
       <c r="B368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -5825,10 +5825,10 @@
     </row>
     <row r="369" spans="2:4" ht="21">
       <c r="B369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="370" spans="2:4" ht="21">
       <c r="B370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="371" spans="2:4" ht="21">
       <c r="B371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -5858,10 +5858,10 @@
     </row>
     <row r="372" spans="2:4" ht="21">
       <c r="B372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="373" spans="2:4" ht="21">
       <c r="B373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="374" spans="2:4" ht="21">
       <c r="B374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="375" spans="2:4" ht="21">
       <c r="B375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="376" spans="2:4" ht="21">
       <c r="B376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="377" spans="2:4" ht="21">
       <c r="B377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="378" spans="2:4" ht="21">
       <c r="B378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="379" spans="2:4" ht="21">
       <c r="B379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="380" spans="2:4" ht="21">
       <c r="B380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="381" spans="2:4" ht="21">
       <c r="B381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="382" spans="2:4" ht="21">
       <c r="B382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="383" spans="2:4" ht="21">
       <c r="B383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="384" spans="2:4" ht="21">
       <c r="B384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="385" spans="2:4" ht="21">
       <c r="B385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="386" spans="2:4" ht="21">
       <c r="B386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="387" spans="2:4" ht="21">
       <c r="B387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="388" spans="2:4" ht="21">
       <c r="B388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="389" spans="2:4" ht="21">
       <c r="B389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="390" spans="2:4" ht="21">
       <c r="B390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>4</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="391" spans="2:4" ht="21">
       <c r="B391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="392" spans="2:4" ht="21">
       <c r="B392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="393" spans="2:4" ht="21">
       <c r="B393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="394" spans="2:4" ht="21">
       <c r="B394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -6111,10 +6111,10 @@
     </row>
     <row r="395" spans="2:4" ht="21">
       <c r="B395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="396" spans="2:4" ht="21">
       <c r="B396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -6133,10 +6133,10 @@
     </row>
     <row r="397" spans="2:4" ht="21">
       <c r="B397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="398" spans="2:4" ht="21">
       <c r="B398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -6155,10 +6155,10 @@
     </row>
     <row r="399" spans="2:4" ht="21">
       <c r="B399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>4</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="402" spans="2:4" ht="21">
       <c r="B402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>4</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="403" spans="2:4" ht="21">
       <c r="B403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="404" spans="2:4" ht="21">
       <c r="B404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="405" spans="2:4" ht="21">
       <c r="B405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>89</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="406" spans="2:4" ht="21">
       <c r="B406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="407" spans="2:4" ht="21">
       <c r="B407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>4</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="410" spans="2:4" ht="21">
       <c r="B410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C410" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>4</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="411" spans="2:4" ht="21">
       <c r="B411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="412" spans="2:4" ht="21">
       <c r="B412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="413" spans="2:4" ht="21">
       <c r="B413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="414" spans="2:4" ht="21">
       <c r="B414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -6303,10 +6303,10 @@
     </row>
     <row r="415" spans="2:4" ht="21">
       <c r="B415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="416" spans="2:4" ht="21">
       <c r="B416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="417" spans="2:4" ht="21">
       <c r="B417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="418" spans="2:4" ht="21">
       <c r="B418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="419" spans="2:4" ht="21">
       <c r="B419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -6358,10 +6358,10 @@
     </row>
     <row r="420" spans="2:4" ht="21">
       <c r="B420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="421" spans="2:4" ht="21">
       <c r="B421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="422" spans="2:4" ht="21">
       <c r="B422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="423" spans="2:4" ht="21">
       <c r="B423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="424" spans="2:4" ht="21">
       <c r="B424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="425" spans="2:4" ht="21">
       <c r="B425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="426" spans="2:4" ht="21">
       <c r="B426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="427" spans="2:4" ht="21">
       <c r="B427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -6446,10 +6446,10 @@
     </row>
     <row r="428" spans="2:4" ht="21">
       <c r="B428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="429" spans="2:4" ht="21">
       <c r="B429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="430" spans="2:4" ht="21">
       <c r="B430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="431" spans="2:4" ht="21">
       <c r="B431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="432" spans="2:4" ht="21">
       <c r="B432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="433" spans="2:4" ht="21">
       <c r="B433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="434" spans="2:4" ht="21">
       <c r="B434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="435" spans="2:4" ht="21">
       <c r="B435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="436" spans="2:4" ht="21">
       <c r="B436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="437" spans="2:4" ht="21">
       <c r="B437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="438" spans="2:4" ht="21">
       <c r="B438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="439" spans="2:4" ht="21">
       <c r="B439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="440" spans="2:4" ht="21">
       <c r="B440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="441" spans="2:4" ht="21">
       <c r="B441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="442" spans="2:4" ht="21">
       <c r="B442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="443" spans="2:4" ht="21">
       <c r="B443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="444" spans="2:4" ht="21">
       <c r="B444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="445" spans="2:4" ht="21">
       <c r="B445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="446" spans="2:4" ht="21">
       <c r="B446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="447" spans="2:4" ht="21">
       <c r="B447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="448" spans="2:4" ht="21">
       <c r="B448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="449" spans="2:4" ht="21">
       <c r="B449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="450" spans="2:4" ht="21">
       <c r="B450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="451" spans="2:4" ht="21">
       <c r="B451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="452" spans="2:4" ht="21">
       <c r="B452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="453" spans="2:4" ht="21">
       <c r="B453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="454" spans="2:4" ht="21">
       <c r="B454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="455" spans="2:4" ht="21">
       <c r="B455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="456" spans="2:4" ht="21">
       <c r="B456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="457" spans="2:4" ht="21">
       <c r="B457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="458" spans="2:4" ht="21">
       <c r="B458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="459" spans="2:4" ht="21">
       <c r="B459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="460" spans="2:4" ht="21">
       <c r="B460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="461" spans="2:4" ht="21">
       <c r="B461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="462" spans="2:4" ht="21">
       <c r="B462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="463" spans="2:4" ht="21">
       <c r="B463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="464" spans="2:4" ht="21">
       <c r="B464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="465" spans="2:4" ht="21">
       <c r="B465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="466" spans="2:4" ht="21">
       <c r="B466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="467" spans="2:4" ht="21">
       <c r="B467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="468" spans="2:4" ht="21">
       <c r="B468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="469" spans="2:4" ht="21">
       <c r="B469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>4</v>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="472" spans="2:4" ht="21">
       <c r="B472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>4</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="473" spans="2:4" ht="21">
       <c r="B473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="474" spans="2:4" ht="21">
       <c r="B474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -6950,10 +6950,10 @@
     </row>
     <row r="475" spans="2:4" ht="21">
       <c r="B475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -6961,10 +6961,10 @@
     </row>
     <row r="476" spans="2:4" ht="21">
       <c r="B476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="477" spans="2:4" ht="21">
       <c r="B477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="478" spans="2:4" ht="21">
       <c r="B478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="479" spans="2:4" ht="21">
       <c r="B479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="480" spans="2:4" ht="21">
       <c r="B480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="481" spans="2:4" ht="21">
       <c r="B481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>4</v>
@@ -7153,7 +7153,7 @@
     <hyperlink ref="C139" r:id="rId124"/>
     <hyperlink ref="C140" r:id="rId125"/>
     <hyperlink ref="C141" r:id="rId126"/>
-    <hyperlink ref="C142" r:id="rId127"/>
+    <hyperlink ref="C142" r:id="rId127" display="Write a program to Delete loop in a linked list."/>
     <hyperlink ref="C143" r:id="rId128"/>
     <hyperlink ref="C144" r:id="rId129"/>
     <hyperlink ref="C145" r:id="rId130"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="936" windowWidth="23256" windowHeight="13176"/>
+    <workbookView minimized="1" xWindow="780" yWindow="936" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1859,17 +1859,17 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4">
       <c r="C2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1880,10 +1880,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="21">
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1897,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="21">
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1911,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="21">
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1916,7 +1925,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="21">
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +1939,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="21">
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10">
+        <v>5</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1953,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="21">
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11">
+        <v>6</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1967,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="21">
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12">
+        <v>7</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1981,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="21">
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13">
+        <v>8</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1995,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="21">
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +2009,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="21">
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2023,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="21">
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16">
+        <v>11</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2037,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="21">
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17">
+        <v>12</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2051,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="21">
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18">
+        <v>13</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2065,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="21">
+    <row r="19" spans="1:4" ht="21">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2079,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="21">
+    <row r="20" spans="1:4" ht="21">
+      <c r="A20">
+        <v>15</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2093,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="21">
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21">
+        <v>16</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2107,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="21">
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22">
+        <v>17</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2121,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="21">
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2135,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="21">
+    <row r="24" spans="1:4" ht="21">
+      <c r="A24">
+        <v>19</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2149,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="21">
+    <row r="25" spans="1:4" ht="21">
+      <c r="A25">
+        <v>20</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2163,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="21">
+    <row r="26" spans="1:4" ht="21">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2177,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="21">
+    <row r="27" spans="1:4" ht="21">
+      <c r="A27">
+        <v>22</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2125,7 +2191,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="21">
+    <row r="28" spans="1:4" ht="21">
+      <c r="A28">
+        <v>23</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2136,7 +2205,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="21">
+    <row r="29" spans="1:4" ht="21">
+      <c r="A29">
+        <v>24</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2219,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="21">
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30">
+        <v>25</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2233,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="21">
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31">
+        <v>26</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2247,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="21">
+    <row r="32" spans="1:4" ht="21">
+      <c r="A32">
+        <v>27</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2261,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="21">
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33">
+        <v>28</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2275,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="21">
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34">
+        <v>29</v>
+      </c>
       <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2289,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="21">
+    <row r="35" spans="1:4" ht="21">
+      <c r="A35">
+        <v>30</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2303,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="21">
+    <row r="36" spans="1:4" ht="21">
+      <c r="A36">
+        <v>31</v>
+      </c>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2317,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="21">
+    <row r="37" spans="1:4" ht="21">
+      <c r="A37">
+        <v>32</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2331,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="21">
+    <row r="38" spans="1:4" ht="21">
+      <c r="A38">
+        <v>33</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2345,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="21">
+    <row r="39" spans="1:4" ht="21">
+      <c r="A39">
+        <v>34</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2359,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="21">
+    <row r="40" spans="1:4" ht="21">
+      <c r="A40">
+        <v>35</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2373,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="21">
+    <row r="41" spans="1:4" ht="21">
+      <c r="A41">
+        <v>36</v>
+      </c>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2279,20 +2387,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="21">
+    <row r="44" spans="1:4" ht="21">
+      <c r="A44">
+        <v>1</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2303,7 +2414,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="21">
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45">
+        <v>2</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2428,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="21">
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46">
+        <v>3</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2325,7 +2442,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="21">
+    <row r="47" spans="1:4" ht="21">
+      <c r="A47">
+        <v>4</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2456,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="21">
+    <row r="48" spans="1:4" ht="21">
+      <c r="A48">
+        <v>5</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2347,7 +2470,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="21">
+    <row r="49" spans="1:4" ht="21">
+      <c r="A49">
+        <v>6</v>
+      </c>
       <c r="B49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2358,7 +2484,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="21">
+    <row r="50" spans="1:4" ht="21">
+      <c r="A50">
+        <v>7</v>
+      </c>
       <c r="B50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2498,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="21">
+    <row r="51" spans="1:4" ht="21">
+      <c r="A51">
+        <v>8</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2512,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="21">
+    <row r="52" spans="1:4" ht="21">
+      <c r="A52">
+        <v>9</v>
+      </c>
       <c r="B52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2391,7 +2526,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="21">
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53">
+        <v>10</v>
+      </c>
       <c r="B53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2402,12 +2540,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" ht="21">
+    <row r="56" spans="1:4" ht="21">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2559,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="21">
+    <row r="57" spans="1:4" ht="21">
+      <c r="A57">
+        <v>2</v>
+      </c>
       <c r="B57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2573,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="21">
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58">
+        <v>3</v>
+      </c>
       <c r="B58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2440,7 +2587,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="21">
+    <row r="59" spans="1:4" ht="21">
+      <c r="A59">
+        <v>4</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2451,7 +2601,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="21">
+    <row r="60" spans="1:4" ht="21">
+      <c r="A60">
+        <v>5</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2615,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="21">
+    <row r="61" spans="1:4" ht="21">
+      <c r="A61">
+        <v>6</v>
+      </c>
       <c r="B61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2473,7 +2629,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="21">
+    <row r="62" spans="1:4" ht="21">
+      <c r="A62">
+        <v>7</v>
+      </c>
       <c r="B62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2484,7 +2643,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="21">
+    <row r="63" spans="1:4" ht="21">
+      <c r="A63">
+        <v>8</v>
+      </c>
       <c r="B63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2495,7 +2657,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="21">
+    <row r="64" spans="1:4" ht="21">
+      <c r="A64">
+        <v>9</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2671,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="21">
+    <row r="65" spans="1:4" ht="21">
+      <c r="A65">
+        <v>10</v>
+      </c>
       <c r="B65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2517,7 +2685,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="21">
+    <row r="66" spans="1:4" ht="21">
+      <c r="A66">
+        <v>11</v>
+      </c>
       <c r="B66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2528,7 +2699,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="21">
+    <row r="67" spans="1:4" ht="21">
+      <c r="A67">
+        <v>12</v>
+      </c>
       <c r="B67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2713,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="21">
+    <row r="68" spans="1:4" ht="21">
+      <c r="A68">
+        <v>13</v>
+      </c>
       <c r="B68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2727,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="21">
+    <row r="69" spans="1:4" ht="21">
+      <c r="A69">
+        <v>14</v>
+      </c>
       <c r="B69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2561,7 +2741,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="21">
+    <row r="70" spans="1:4" ht="21">
+      <c r="A70">
+        <v>15</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2755,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="21">
+    <row r="71" spans="1:4" ht="21">
+      <c r="A71">
+        <v>16</v>
+      </c>
       <c r="B71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2769,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="21">
+    <row r="72" spans="1:4" ht="21">
+      <c r="A72">
+        <v>17</v>
+      </c>
       <c r="B72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2594,7 +2783,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="21">
+    <row r="73" spans="1:4" ht="21">
+      <c r="A73">
+        <v>18</v>
+      </c>
       <c r="B73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2797,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="21">
+    <row r="74" spans="1:4" ht="21">
+      <c r="A74">
+        <v>19</v>
+      </c>
       <c r="B74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2811,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="21">
+    <row r="75" spans="1:4" ht="21">
+      <c r="A75">
+        <v>20</v>
+      </c>
       <c r="B75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2825,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="21">
+    <row r="76" spans="1:4" ht="21">
+      <c r="A76">
+        <v>21</v>
+      </c>
       <c r="B76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2638,7 +2839,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="21">
+    <row r="77" spans="1:4" ht="21">
+      <c r="A77">
+        <v>22</v>
+      </c>
       <c r="B77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2649,7 +2853,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="21">
+    <row r="78" spans="1:4" ht="21">
+      <c r="A78">
+        <v>23</v>
+      </c>
       <c r="B78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2660,7 +2867,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="21">
+    <row r="79" spans="1:4" ht="21">
+      <c r="A79">
+        <v>24</v>
+      </c>
       <c r="B79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2881,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="21">
+    <row r="80" spans="1:4" ht="21">
+      <c r="A80">
+        <v>25</v>
+      </c>
       <c r="B80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2682,7 +2895,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="21">
+    <row r="81" spans="1:4" ht="21">
+      <c r="A81">
+        <v>26</v>
+      </c>
       <c r="B81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2693,7 +2909,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="21">
+    <row r="82" spans="1:4" ht="21">
+      <c r="A82">
+        <v>27</v>
+      </c>
       <c r="B82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2704,7 +2923,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="21">
+    <row r="83" spans="1:4" ht="21">
+      <c r="A83">
+        <v>28</v>
+      </c>
       <c r="B83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2715,7 +2937,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="21">
+    <row r="84" spans="1:4" ht="21">
+      <c r="A84">
+        <v>29</v>
+      </c>
       <c r="B84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2951,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="21">
+    <row r="85" spans="1:4" ht="21">
+      <c r="A85">
+        <v>30</v>
+      </c>
       <c r="B85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2737,7 +2965,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="21">
+    <row r="86" spans="1:4" ht="21">
+      <c r="A86">
+        <v>31</v>
+      </c>
       <c r="B86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2979,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="21">
+    <row r="87" spans="1:4" ht="21">
+      <c r="A87">
+        <v>32</v>
+      </c>
       <c r="B87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2993,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="21">
+    <row r="88" spans="1:4" ht="21">
+      <c r="A88">
+        <v>33</v>
+      </c>
       <c r="B88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2770,7 +3007,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="21">
+    <row r="89" spans="1:4" ht="21">
+      <c r="A89">
+        <v>34</v>
+      </c>
       <c r="B89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +3021,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="21">
+    <row r="90" spans="1:4" ht="21">
+      <c r="A90">
+        <v>35</v>
+      </c>
       <c r="B90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +3035,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="21">
+    <row r="91" spans="1:4" ht="21">
+      <c r="A91">
+        <v>36</v>
+      </c>
       <c r="B91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2803,7 +3049,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="21">
+    <row r="92" spans="1:4" ht="21">
+      <c r="A92">
+        <v>37</v>
+      </c>
       <c r="B92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +3063,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="21">
+    <row r="93" spans="1:4" ht="21">
+      <c r="A93">
+        <v>38</v>
+      </c>
       <c r="B93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2825,7 +3077,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="21">
+    <row r="94" spans="1:4" ht="21">
+      <c r="A94">
+        <v>39</v>
+      </c>
       <c r="B94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +3091,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="21">
+    <row r="95" spans="1:4" ht="21">
+      <c r="A95">
+        <v>40</v>
+      </c>
       <c r="B95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +3105,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="21">
+    <row r="96" spans="1:4" ht="21">
+      <c r="A96">
+        <v>41</v>
+      </c>
       <c r="B96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +3119,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="21">
+    <row r="97" spans="1:4" ht="21">
+      <c r="A97">
+        <v>42</v>
+      </c>
       <c r="B97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2869,7 +3133,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="21">
+    <row r="98" spans="1:4" ht="21">
+      <c r="A98">
+        <v>43</v>
+      </c>
       <c r="B98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2880,12 +3147,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="21">
+    <row r="100" spans="1:4" ht="21">
       <c r="B100" s="8"/>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="2:4" ht="21">
+    <row r="101" spans="1:4" ht="21">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2896,7 +3166,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="21">
+    <row r="102" spans="1:4" ht="21">
+      <c r="A102">
+        <v>2</v>
+      </c>
       <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2907,7 +3180,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="21">
+    <row r="103" spans="1:4" ht="21">
+      <c r="A103">
+        <v>3</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2918,7 +3194,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="21">
+    <row r="104" spans="1:4" ht="21">
+      <c r="A104">
+        <v>4</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2929,7 +3208,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="21">
+    <row r="105" spans="1:4" ht="21">
+      <c r="A105">
+        <v>5</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2940,7 +3222,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="21">
+    <row r="106" spans="1:4" ht="21">
+      <c r="A106">
+        <v>6</v>
+      </c>
       <c r="B106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +3236,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="21">
+    <row r="107" spans="1:4" ht="21">
+      <c r="A107">
+        <v>7</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +3250,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="21">
+    <row r="108" spans="1:4" ht="21">
+      <c r="A108">
+        <v>8</v>
+      </c>
       <c r="B108" s="5" t="s">
         <v>97</v>
       </c>
@@ -2973,7 +3264,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="21">
+    <row r="109" spans="1:4" ht="21">
+      <c r="A109">
+        <v>9</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>97</v>
       </c>
@@ -2984,7 +3278,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="21">
+    <row r="110" spans="1:4" ht="21">
+      <c r="A110">
+        <v>10</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>97</v>
       </c>
@@ -2995,7 +3292,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="21">
+    <row r="111" spans="1:4" ht="21">
+      <c r="A111">
+        <v>11</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3006,7 +3306,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="21">
+    <row r="112" spans="1:4" ht="21">
+      <c r="A112">
+        <v>12</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3017,7 +3320,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="21">
+    <row r="113" spans="1:4" ht="21">
+      <c r="A113">
+        <v>13</v>
+      </c>
       <c r="B113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3028,7 +3334,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="21">
+    <row r="114" spans="1:4" ht="21">
+      <c r="A114">
+        <v>14</v>
+      </c>
       <c r="B114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3039,7 +3348,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="21">
+    <row r="115" spans="1:4" ht="21">
+      <c r="A115">
+        <v>15</v>
+      </c>
       <c r="B115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3050,7 +3362,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="21">
+    <row r="116" spans="1:4" ht="21">
+      <c r="A116">
+        <v>16</v>
+      </c>
       <c r="B116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3061,7 +3376,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="21">
+    <row r="117" spans="1:4" ht="21">
+      <c r="A117">
+        <v>17</v>
+      </c>
       <c r="B117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3072,7 +3390,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="21">
+    <row r="118" spans="1:4" ht="21">
+      <c r="A118">
+        <v>18</v>
+      </c>
       <c r="B118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3083,7 +3404,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="21">
+    <row r="119" spans="1:4" ht="21">
+      <c r="A119">
+        <v>19</v>
+      </c>
       <c r="B119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3094,7 +3418,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="21">
+    <row r="120" spans="1:4" ht="21">
+      <c r="A120">
+        <v>20</v>
+      </c>
       <c r="B120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3105,7 +3432,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="21">
+    <row r="121" spans="1:4" ht="21">
+      <c r="A121">
+        <v>21</v>
+      </c>
       <c r="B121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3116,7 +3446,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="21">
+    <row r="122" spans="1:4" ht="21">
+      <c r="A122">
+        <v>22</v>
+      </c>
       <c r="B122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3127,7 +3460,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="21">
+    <row r="123" spans="1:4" ht="21">
+      <c r="A123">
+        <v>23</v>
+      </c>
       <c r="B123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3138,7 +3474,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="21">
+    <row r="124" spans="1:4" ht="21">
+      <c r="A124">
+        <v>24</v>
+      </c>
       <c r="B124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3149,7 +3488,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="21">
+    <row r="125" spans="1:4" ht="21">
+      <c r="A125">
+        <v>25</v>
+      </c>
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3160,7 +3502,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="21">
+    <row r="126" spans="1:4" ht="21">
+      <c r="A126">
+        <v>26</v>
+      </c>
       <c r="B126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3516,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="21">
+    <row r="127" spans="1:4" ht="21">
+      <c r="A127">
+        <v>27</v>
+      </c>
       <c r="B127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3530,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="21">
+    <row r="128" spans="1:4" ht="21">
+      <c r="A128">
+        <v>28</v>
+      </c>
       <c r="B128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3194,6 +3545,9 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
+      <c r="A129">
+        <v>29</v>
+      </c>
       <c r="B129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3205,6 +3559,9 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="21">
+      <c r="A130">
+        <v>30</v>
+      </c>
       <c r="B130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3216,6 +3573,9 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
+      <c r="A131">
+        <v>31</v>
+      </c>
       <c r="B131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3227,6 +3587,9 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
+      <c r="A132">
+        <v>32</v>
+      </c>
       <c r="B132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3238,6 +3601,9 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
+      <c r="A133">
+        <v>33</v>
+      </c>
       <c r="B133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3249,6 +3615,9 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
+      <c r="A134">
+        <v>34</v>
+      </c>
       <c r="B134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,6 +3629,9 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
+      <c r="A135">
+        <v>35</v>
+      </c>
       <c r="B135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3271,6 +3643,9 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
+      <c r="A136">
+        <v>36</v>
+      </c>
       <c r="B136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3793,7 +4168,10 @@
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="2:4" ht="21">
+    <row r="177" spans="1:4" ht="21">
+      <c r="A177">
+        <v>1</v>
+      </c>
       <c r="B177" s="5" t="s">
         <v>170</v>
       </c>
@@ -3804,7 +4182,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="21">
+    <row r="178" spans="1:4" ht="21">
+      <c r="A178">
+        <v>2</v>
+      </c>
       <c r="B178" s="5" t="s">
         <v>170</v>
       </c>
@@ -3815,7 +4196,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="21">
+    <row r="179" spans="1:4" ht="21">
+      <c r="A179">
+        <v>3</v>
+      </c>
       <c r="B179" s="5" t="s">
         <v>170</v>
       </c>
@@ -3826,7 +4210,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="21">
+    <row r="180" spans="1:4" ht="21">
+      <c r="A180">
+        <v>4</v>
+      </c>
       <c r="B180" s="5" t="s">
         <v>170</v>
       </c>
@@ -3837,7 +4224,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="21">
+    <row r="181" spans="1:4" ht="21">
+      <c r="A181">
+        <v>5</v>
+      </c>
       <c r="B181" s="5" t="s">
         <v>170</v>
       </c>
@@ -3848,7 +4238,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="21">
+    <row r="182" spans="1:4" ht="21">
+      <c r="A182">
+        <v>6</v>
+      </c>
       <c r="B182" s="5" t="s">
         <v>170</v>
       </c>
@@ -3859,7 +4252,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="21">
+    <row r="183" spans="1:4" ht="21">
+      <c r="A183">
+        <v>7</v>
+      </c>
       <c r="B183" s="5" t="s">
         <v>170</v>
       </c>
@@ -3870,7 +4266,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="21">
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184">
+        <v>8</v>
+      </c>
       <c r="B184" s="5" t="s">
         <v>170</v>
       </c>
@@ -3881,7 +4280,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="21">
+    <row r="185" spans="1:4" ht="21">
+      <c r="A185">
+        <v>9</v>
+      </c>
       <c r="B185" s="5" t="s">
         <v>170</v>
       </c>
@@ -3892,7 +4294,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="21">
+    <row r="186" spans="1:4" ht="21">
+      <c r="A186">
+        <v>10</v>
+      </c>
       <c r="B186" s="5" t="s">
         <v>170</v>
       </c>
@@ -3903,7 +4308,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="21">
+    <row r="187" spans="1:4" ht="21">
+      <c r="A187">
+        <v>11</v>
+      </c>
       <c r="B187" s="5" t="s">
         <v>170</v>
       </c>
@@ -3914,7 +4322,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="21">
+    <row r="188" spans="1:4" ht="21">
+      <c r="A188">
+        <v>12</v>
+      </c>
       <c r="B188" s="5" t="s">
         <v>170</v>
       </c>
@@ -3925,7 +4336,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="21">
+    <row r="189" spans="1:4" ht="21">
+      <c r="A189">
+        <v>13</v>
+      </c>
       <c r="B189" s="5" t="s">
         <v>170</v>
       </c>
@@ -3936,7 +4350,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="21">
+    <row r="190" spans="1:4" ht="21">
+      <c r="A190">
+        <v>14</v>
+      </c>
       <c r="B190" s="5" t="s">
         <v>170</v>
       </c>
@@ -3947,7 +4364,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="21">
+    <row r="191" spans="1:4" ht="21">
+      <c r="A191">
+        <v>15</v>
+      </c>
       <c r="B191" s="5" t="s">
         <v>170</v>
       </c>
@@ -3958,7 +4378,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="21">
+    <row r="192" spans="1:4" ht="21">
+      <c r="A192">
+        <v>16</v>
+      </c>
       <c r="B192" s="5" t="s">
         <v>170</v>
       </c>
@@ -3969,7 +4392,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="21">
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193">
+        <v>17</v>
+      </c>
       <c r="B193" s="5" t="s">
         <v>170</v>
       </c>
@@ -3980,7 +4406,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="21">
+    <row r="194" spans="1:4" ht="21">
+      <c r="A194">
+        <v>18</v>
+      </c>
       <c r="B194" s="5" t="s">
         <v>170</v>
       </c>
@@ -3991,7 +4420,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="21">
+    <row r="195" spans="1:4" ht="21">
+      <c r="A195">
+        <v>19</v>
+      </c>
       <c r="B195" s="5" t="s">
         <v>170</v>
       </c>
@@ -4002,7 +4434,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="21">
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196">
+        <v>20</v>
+      </c>
       <c r="B196" s="5" t="s">
         <v>170</v>
       </c>
@@ -4013,7 +4448,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="21">
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197">
+        <v>21</v>
+      </c>
       <c r="B197" s="5" t="s">
         <v>170</v>
       </c>
@@ -4024,7 +4462,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="21">
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198">
+        <v>22</v>
+      </c>
       <c r="B198" s="5" t="s">
         <v>170</v>
       </c>
@@ -4035,7 +4476,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="21">
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199">
+        <v>23</v>
+      </c>
       <c r="B199" s="5" t="s">
         <v>170</v>
       </c>
@@ -4046,7 +4490,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="21">
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200">
+        <v>24</v>
+      </c>
       <c r="B200" s="5" t="s">
         <v>170</v>
       </c>
@@ -4057,7 +4504,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="21">
+    <row r="201" spans="1:4" ht="21">
+      <c r="A201">
+        <v>25</v>
+      </c>
       <c r="B201" s="5" t="s">
         <v>170</v>
       </c>
@@ -4068,7 +4518,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="21">
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202">
+        <v>26</v>
+      </c>
       <c r="B202" s="5" t="s">
         <v>170</v>
       </c>
@@ -4079,7 +4532,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="21">
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203">
+        <v>27</v>
+      </c>
       <c r="B203" s="5" t="s">
         <v>170</v>
       </c>
@@ -4090,7 +4546,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="21">
+    <row r="204" spans="1:4" ht="21">
+      <c r="A204">
+        <v>28</v>
+      </c>
       <c r="B204" s="5" t="s">
         <v>170</v>
       </c>
@@ -4101,7 +4560,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="21">
+    <row r="205" spans="1:4" ht="21">
+      <c r="A205">
+        <v>29</v>
+      </c>
       <c r="B205" s="5" t="s">
         <v>170</v>
       </c>
@@ -4112,7 +4574,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="21">
+    <row r="206" spans="1:4" ht="21">
+      <c r="A206">
+        <v>30</v>
+      </c>
       <c r="B206" s="5" t="s">
         <v>170</v>
       </c>
@@ -4123,7 +4588,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="21">
+    <row r="207" spans="1:4" ht="21">
+      <c r="A207">
+        <v>31</v>
+      </c>
       <c r="B207" s="5" t="s">
         <v>170</v>
       </c>
@@ -4134,7 +4602,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="21">
+    <row r="208" spans="1:4" ht="21">
+      <c r="A208">
+        <v>32</v>
+      </c>
       <c r="B208" s="5" t="s">
         <v>170</v>
       </c>
@@ -4145,7 +4616,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="21">
+    <row r="209" spans="1:4" ht="21">
+      <c r="A209">
+        <v>33</v>
+      </c>
       <c r="B209" s="5" t="s">
         <v>170</v>
       </c>
@@ -4156,7 +4630,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="21">
+    <row r="210" spans="1:4" ht="21">
+      <c r="A210">
+        <v>34</v>
+      </c>
       <c r="B210" s="5" t="s">
         <v>170</v>
       </c>
@@ -4167,7 +4644,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="21">
+    <row r="211" spans="1:4" ht="21">
+      <c r="A211">
+        <v>35</v>
+      </c>
       <c r="B211" s="5" t="s">
         <v>170</v>
       </c>
@@ -4178,17 +4658,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="21">
+    <row r="212" spans="1:4" ht="21">
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="2:4" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="2:4" ht="21">
+    <row r="214" spans="1:4" ht="21">
+      <c r="A214">
+        <v>1</v>
+      </c>
       <c r="B214" s="5" t="s">
         <v>206</v>
       </c>
@@ -4199,7 +4682,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="21">
+    <row r="215" spans="1:4" ht="21">
+      <c r="A215">
+        <v>2</v>
+      </c>
       <c r="B215" s="5" t="s">
         <v>206</v>
       </c>
@@ -4210,7 +4696,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="21">
+    <row r="216" spans="1:4" ht="21">
+      <c r="A216">
+        <v>3</v>
+      </c>
       <c r="B216" s="5" t="s">
         <v>206</v>
       </c>
@@ -4221,7 +4710,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="21">
+    <row r="217" spans="1:4" ht="21">
+      <c r="A217">
+        <v>4</v>
+      </c>
       <c r="B217" s="5" t="s">
         <v>206</v>
       </c>
@@ -4232,7 +4724,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="21">
+    <row r="218" spans="1:4" ht="21">
+      <c r="A218">
+        <v>5</v>
+      </c>
       <c r="B218" s="5" t="s">
         <v>206</v>
       </c>
@@ -4243,7 +4738,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="21">
+    <row r="219" spans="1:4" ht="21">
+      <c r="A219">
+        <v>6</v>
+      </c>
       <c r="B219" s="5" t="s">
         <v>206</v>
       </c>
@@ -4254,7 +4752,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="21">
+    <row r="220" spans="1:4" ht="21">
+      <c r="A220">
+        <v>7</v>
+      </c>
       <c r="B220" s="5" t="s">
         <v>206</v>
       </c>
@@ -4265,7 +4766,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="21">
+    <row r="221" spans="1:4" ht="21">
+      <c r="A221">
+        <v>8</v>
+      </c>
       <c r="B221" s="5" t="s">
         <v>206</v>
       </c>
@@ -4276,7 +4780,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="21">
+    <row r="222" spans="1:4" ht="21">
+      <c r="A222">
+        <v>9</v>
+      </c>
       <c r="B222" s="5" t="s">
         <v>206</v>
       </c>
@@ -4287,7 +4794,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="21">
+    <row r="223" spans="1:4" ht="21">
+      <c r="A223">
+        <v>10</v>
+      </c>
       <c r="B223" s="5" t="s">
         <v>206</v>
       </c>
@@ -4298,7 +4808,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="21">
+    <row r="224" spans="1:4" ht="21">
+      <c r="A224">
+        <v>11</v>
+      </c>
       <c r="B224" s="5" t="s">
         <v>206</v>
       </c>
@@ -4309,7 +4822,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="21">
+    <row r="225" spans="1:4" ht="21">
+      <c r="A225">
+        <v>12</v>
+      </c>
       <c r="B225" s="5" t="s">
         <v>206</v>
       </c>
@@ -4320,7 +4836,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="21">
+    <row r="226" spans="1:4" ht="21">
+      <c r="A226">
+        <v>13</v>
+      </c>
       <c r="B226" s="5" t="s">
         <v>206</v>
       </c>
@@ -4331,7 +4850,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="21">
+    <row r="227" spans="1:4" ht="21">
+      <c r="A227">
+        <v>14</v>
+      </c>
       <c r="B227" s="5" t="s">
         <v>206</v>
       </c>
@@ -4342,7 +4864,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="21">
+    <row r="228" spans="1:4" ht="21">
+      <c r="A228">
+        <v>15</v>
+      </c>
       <c r="B228" s="5" t="s">
         <v>206</v>
       </c>
@@ -4353,7 +4878,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="21">
+    <row r="229" spans="1:4" ht="21">
+      <c r="A229">
+        <v>16</v>
+      </c>
       <c r="B229" s="5" t="s">
         <v>206</v>
       </c>
@@ -4364,7 +4892,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="21">
+    <row r="230" spans="1:4" ht="21">
+      <c r="A230">
+        <v>17</v>
+      </c>
       <c r="B230" s="5" t="s">
         <v>206</v>
       </c>
@@ -4375,7 +4906,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="21">
+    <row r="231" spans="1:4" ht="21">
+      <c r="A231">
+        <v>18</v>
+      </c>
       <c r="B231" s="5" t="s">
         <v>206</v>
       </c>
@@ -4386,7 +4920,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="21">
+    <row r="232" spans="1:4" ht="21">
+      <c r="A232">
+        <v>19</v>
+      </c>
       <c r="B232" s="5" t="s">
         <v>206</v>
       </c>
@@ -4397,7 +4934,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="21">
+    <row r="233" spans="1:4" ht="21">
+      <c r="A233">
+        <v>20</v>
+      </c>
       <c r="B233" s="5" t="s">
         <v>206</v>
       </c>
@@ -4408,7 +4948,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="21">
+    <row r="234" spans="1:4" ht="21">
+      <c r="A234">
+        <v>21</v>
+      </c>
       <c r="B234" s="5" t="s">
         <v>206</v>
       </c>
@@ -4419,7 +4962,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="21">
+    <row r="235" spans="1:4" ht="21">
+      <c r="A235">
+        <v>22</v>
+      </c>
       <c r="B235" s="5" t="s">
         <v>206</v>
       </c>
@@ -4430,15 +4976,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="21">
+    <row r="236" spans="1:4" ht="21">
       <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="2:4" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="2:4" ht="21">
+    <row r="238" spans="1:4" ht="21">
+      <c r="A238">
+        <v>1</v>
+      </c>
       <c r="B238" s="5" t="s">
         <v>229</v>
       </c>
@@ -4449,7 +4998,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="21">
+    <row r="239" spans="1:4" ht="21">
+      <c r="A239">
+        <v>2</v>
+      </c>
       <c r="B239" s="5" t="s">
         <v>229</v>
       </c>
@@ -4460,7 +5012,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="21">
+    <row r="240" spans="1:4" ht="21">
+      <c r="A240">
+        <v>3</v>
+      </c>
       <c r="B240" s="5" t="s">
         <v>229</v>
       </c>
@@ -4471,7 +5026,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="21">
+    <row r="241" spans="1:4" ht="21">
+      <c r="A241">
+        <v>4</v>
+      </c>
       <c r="B241" s="5" t="s">
         <v>229</v>
       </c>
@@ -4482,7 +5040,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="21">
+    <row r="242" spans="1:4" ht="21">
+      <c r="A242">
+        <v>5</v>
+      </c>
       <c r="B242" s="5" t="s">
         <v>229</v>
       </c>
@@ -4493,7 +5054,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="21">
+    <row r="243" spans="1:4" ht="21">
+      <c r="A243">
+        <v>6</v>
+      </c>
       <c r="B243" s="5" t="s">
         <v>229</v>
       </c>
@@ -4504,7 +5068,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="21">
+    <row r="244" spans="1:4" ht="21">
+      <c r="A244">
+        <v>7</v>
+      </c>
       <c r="B244" s="5" t="s">
         <v>229</v>
       </c>
@@ -4515,7 +5082,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="21">
+    <row r="245" spans="1:4" ht="21">
+      <c r="A245">
+        <v>8</v>
+      </c>
       <c r="B245" s="5" t="s">
         <v>229</v>
       </c>
@@ -4526,7 +5096,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="21">
+    <row r="246" spans="1:4" ht="21">
+      <c r="A246">
+        <v>9</v>
+      </c>
       <c r="B246" s="5" t="s">
         <v>229</v>
       </c>
@@ -4537,7 +5110,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="21">
+    <row r="247" spans="1:4" ht="21">
+      <c r="A247">
+        <v>10</v>
+      </c>
       <c r="B247" s="5" t="s">
         <v>229</v>
       </c>
@@ -4548,7 +5124,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="21">
+    <row r="248" spans="1:4" ht="21">
+      <c r="A248">
+        <v>11</v>
+      </c>
       <c r="B248" s="5" t="s">
         <v>229</v>
       </c>
@@ -4559,7 +5138,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="21">
+    <row r="249" spans="1:4" ht="21">
+      <c r="A249">
+        <v>12</v>
+      </c>
       <c r="B249" s="5" t="s">
         <v>229</v>
       </c>
@@ -4570,7 +5152,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="21">
+    <row r="250" spans="1:4" ht="21">
+      <c r="A250">
+        <v>13</v>
+      </c>
       <c r="B250" s="5" t="s">
         <v>229</v>
       </c>
@@ -4581,7 +5166,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="21">
+    <row r="251" spans="1:4" ht="21">
+      <c r="A251">
+        <v>14</v>
+      </c>
       <c r="B251" s="5" t="s">
         <v>229</v>
       </c>
@@ -4592,7 +5180,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="21">
+    <row r="252" spans="1:4" ht="21">
+      <c r="A252">
+        <v>15</v>
+      </c>
       <c r="B252" s="5" t="s">
         <v>229</v>
       </c>
@@ -4603,7 +5194,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="21">
+    <row r="253" spans="1:4" ht="21">
+      <c r="A253">
+        <v>16</v>
+      </c>
       <c r="B253" s="5" t="s">
         <v>229</v>
       </c>
@@ -4614,7 +5208,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="21">
+    <row r="254" spans="1:4" ht="21">
+      <c r="A254">
+        <v>17</v>
+      </c>
       <c r="B254" s="5" t="s">
         <v>229</v>
       </c>
@@ -4625,7 +5222,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="21">
+    <row r="255" spans="1:4" ht="21">
+      <c r="A255">
+        <v>18</v>
+      </c>
       <c r="B255" s="5" t="s">
         <v>229</v>
       </c>
@@ -4636,7 +5236,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="21">
+    <row r="256" spans="1:4" ht="21">
+      <c r="A256">
+        <v>19</v>
+      </c>
       <c r="B256" s="5" t="s">
         <v>229</v>
       </c>
@@ -4647,7 +5250,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="21">
+    <row r="257" spans="1:4" ht="21">
+      <c r="A257">
+        <v>20</v>
+      </c>
       <c r="B257" s="5" t="s">
         <v>229</v>
       </c>
@@ -4658,7 +5264,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="21">
+    <row r="258" spans="1:4" ht="21">
+      <c r="A258">
+        <v>21</v>
+      </c>
       <c r="B258" s="5" t="s">
         <v>229</v>
       </c>
@@ -4669,7 +5278,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="21">
+    <row r="259" spans="1:4" ht="21">
+      <c r="A259">
+        <v>22</v>
+      </c>
       <c r="B259" s="5" t="s">
         <v>229</v>
       </c>
@@ -4680,7 +5292,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="21">
+    <row r="260" spans="1:4" ht="21">
+      <c r="A260">
+        <v>23</v>
+      </c>
       <c r="B260" s="5" t="s">
         <v>229</v>
       </c>
@@ -4691,7 +5306,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="21">
+    <row r="261" spans="1:4" ht="21">
+      <c r="A261">
+        <v>24</v>
+      </c>
       <c r="B261" s="5" t="s">
         <v>229</v>
       </c>
@@ -4702,7 +5320,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="21">
+    <row r="262" spans="1:4" ht="21">
+      <c r="A262">
+        <v>25</v>
+      </c>
       <c r="B262" s="5" t="s">
         <v>229</v>
       </c>
@@ -4713,7 +5334,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="21">
+    <row r="263" spans="1:4" ht="21">
+      <c r="A263">
+        <v>26</v>
+      </c>
       <c r="B263" s="5" t="s">
         <v>229</v>
       </c>
@@ -4724,7 +5348,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="21">
+    <row r="264" spans="1:4" ht="21">
+      <c r="A264">
+        <v>27</v>
+      </c>
       <c r="B264" s="5" t="s">
         <v>229</v>
       </c>
@@ -4735,7 +5362,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="21">
+    <row r="265" spans="1:4" ht="21">
+      <c r="A265">
+        <v>28</v>
+      </c>
       <c r="B265" s="5" t="s">
         <v>229</v>
       </c>
@@ -4746,7 +5376,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="21">
+    <row r="266" spans="1:4" ht="21">
+      <c r="A266">
+        <v>29</v>
+      </c>
       <c r="B266" s="5" t="s">
         <v>229</v>
       </c>
@@ -4757,7 +5390,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="21">
+    <row r="267" spans="1:4" ht="21">
+      <c r="A267">
+        <v>30</v>
+      </c>
       <c r="B267" s="5" t="s">
         <v>229</v>
       </c>
@@ -4768,7 +5404,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="21">
+    <row r="268" spans="1:4" ht="21">
+      <c r="A268">
+        <v>31</v>
+      </c>
       <c r="B268" s="5" t="s">
         <v>229</v>
       </c>
@@ -4779,7 +5418,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="21">
+    <row r="269" spans="1:4" ht="21">
+      <c r="A269">
+        <v>32</v>
+      </c>
       <c r="B269" s="5" t="s">
         <v>229</v>
       </c>
@@ -4790,7 +5432,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="21">
+    <row r="270" spans="1:4" ht="21">
+      <c r="A270">
+        <v>33</v>
+      </c>
       <c r="B270" s="5" t="s">
         <v>229</v>
       </c>
@@ -4801,7 +5446,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="21">
+    <row r="271" spans="1:4" ht="21">
+      <c r="A271">
+        <v>34</v>
+      </c>
       <c r="B271" s="5" t="s">
         <v>229</v>
       </c>
@@ -4812,7 +5460,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="21">
+    <row r="272" spans="1:4" ht="21">
+      <c r="A272">
+        <v>35</v>
+      </c>
       <c r="B272" s="5" t="s">
         <v>229</v>
       </c>
@@ -4823,15 +5474,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="21">
+    <row r="273" spans="1:4" ht="21">
       <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="2:4" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="2:4" ht="21">
+    <row r="275" spans="1:4" ht="21">
+      <c r="A275">
+        <v>1</v>
+      </c>
       <c r="B275" s="5" t="s">
         <v>264</v>
       </c>
@@ -4842,7 +5496,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="21">
+    <row r="276" spans="1:4" ht="21">
+      <c r="A276">
+        <v>2</v>
+      </c>
       <c r="B276" s="5" t="s">
         <v>264</v>
       </c>
@@ -4853,7 +5510,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="21">
+    <row r="277" spans="1:4" ht="21">
+      <c r="A277">
+        <v>3</v>
+      </c>
       <c r="B277" s="5" t="s">
         <v>264</v>
       </c>
@@ -4864,7 +5524,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="21">
+    <row r="278" spans="1:4" ht="21">
+      <c r="A278">
+        <v>4</v>
+      </c>
       <c r="B278" s="5" t="s">
         <v>264</v>
       </c>
@@ -4875,7 +5538,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="21">
+    <row r="279" spans="1:4" ht="21">
+      <c r="A279">
+        <v>5</v>
+      </c>
       <c r="B279" s="5" t="s">
         <v>264</v>
       </c>
@@ -4886,7 +5552,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="21">
+    <row r="280" spans="1:4" ht="21">
+      <c r="A280">
+        <v>6</v>
+      </c>
       <c r="B280" s="5" t="s">
         <v>264</v>
       </c>
@@ -4897,7 +5566,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="21">
+    <row r="281" spans="1:4" ht="21">
+      <c r="A281">
+        <v>7</v>
+      </c>
       <c r="B281" s="5" t="s">
         <v>264</v>
       </c>
@@ -4908,7 +5580,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="21">
+    <row r="282" spans="1:4" ht="21">
+      <c r="A282">
+        <v>8</v>
+      </c>
       <c r="B282" s="5" t="s">
         <v>264</v>
       </c>
@@ -4919,7 +5594,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="21">
+    <row r="283" spans="1:4" ht="21">
+      <c r="A283">
+        <v>9</v>
+      </c>
       <c r="B283" s="5" t="s">
         <v>264</v>
       </c>
@@ -4930,7 +5608,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="21">
+    <row r="284" spans="1:4" ht="21">
+      <c r="A284">
+        <v>10</v>
+      </c>
       <c r="B284" s="5" t="s">
         <v>264</v>
       </c>
@@ -4941,7 +5622,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="21">
+    <row r="285" spans="1:4" ht="21">
+      <c r="A285">
+        <v>11</v>
+      </c>
       <c r="B285" s="5" t="s">
         <v>264</v>
       </c>
@@ -4952,7 +5636,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="21">
+    <row r="286" spans="1:4" ht="21">
+      <c r="A286">
+        <v>12</v>
+      </c>
       <c r="B286" s="5" t="s">
         <v>264</v>
       </c>
@@ -4963,7 +5650,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="2:4" ht="21">
+    <row r="287" spans="1:4" ht="21">
+      <c r="A287">
+        <v>13</v>
+      </c>
       <c r="B287" s="5" t="s">
         <v>264</v>
       </c>
@@ -4974,7 +5664,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="21">
+    <row r="288" spans="1:4" ht="21">
+      <c r="A288">
+        <v>14</v>
+      </c>
       <c r="B288" s="5" t="s">
         <v>264</v>
       </c>
@@ -4985,7 +5678,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="21">
+    <row r="289" spans="1:4" ht="21">
+      <c r="A289">
+        <v>15</v>
+      </c>
       <c r="B289" s="5" t="s">
         <v>264</v>
       </c>
@@ -4996,7 +5692,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="21">
+    <row r="290" spans="1:4" ht="21">
+      <c r="A290">
+        <v>16</v>
+      </c>
       <c r="B290" s="5" t="s">
         <v>264</v>
       </c>
@@ -5007,7 +5706,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="21">
+    <row r="291" spans="1:4" ht="21">
+      <c r="A291">
+        <v>17</v>
+      </c>
       <c r="B291" s="5" t="s">
         <v>264</v>
       </c>
@@ -5018,7 +5720,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="21">
+    <row r="292" spans="1:4" ht="21">
+      <c r="A292">
+        <v>18</v>
+      </c>
       <c r="B292" s="5" t="s">
         <v>264</v>
       </c>
@@ -5029,7 +5734,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="21">
+    <row r="293" spans="1:4" ht="21">
+      <c r="A293">
+        <v>19</v>
+      </c>
       <c r="B293" s="5" t="s">
         <v>264</v>
       </c>
@@ -5040,15 +5748,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="21">
+    <row r="294" spans="1:4" ht="21">
       <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="2:4" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="2:4" ht="21">
+    <row r="296" spans="1:4" ht="21">
+      <c r="A296">
+        <v>1</v>
+      </c>
       <c r="B296" s="5" t="s">
         <v>284</v>
       </c>
@@ -5059,7 +5770,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="21">
+    <row r="297" spans="1:4" ht="21">
+      <c r="A297">
+        <v>2</v>
+      </c>
       <c r="B297" s="5" t="s">
         <v>284</v>
       </c>
@@ -5070,7 +5784,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="21">
+    <row r="298" spans="1:4" ht="21">
+      <c r="A298">
+        <v>3</v>
+      </c>
       <c r="B298" s="5" t="s">
         <v>284</v>
       </c>
@@ -5081,7 +5798,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="21">
+    <row r="299" spans="1:4" ht="21">
+      <c r="A299">
+        <v>4</v>
+      </c>
       <c r="B299" s="5" t="s">
         <v>284</v>
       </c>
@@ -5092,7 +5812,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="21">
+    <row r="300" spans="1:4" ht="21">
+      <c r="A300">
+        <v>5</v>
+      </c>
       <c r="B300" s="5" t="s">
         <v>284</v>
       </c>
@@ -5103,7 +5826,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="21">
+    <row r="301" spans="1:4" ht="21">
+      <c r="A301">
+        <v>6</v>
+      </c>
       <c r="B301" s="5" t="s">
         <v>284</v>
       </c>
@@ -5114,7 +5840,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="21">
+    <row r="302" spans="1:4" ht="21">
+      <c r="A302">
+        <v>7</v>
+      </c>
       <c r="B302" s="5" t="s">
         <v>284</v>
       </c>
@@ -5125,7 +5854,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:4" ht="21">
+    <row r="303" spans="1:4" ht="21">
+      <c r="A303">
+        <v>8</v>
+      </c>
       <c r="B303" s="5" t="s">
         <v>284</v>
       </c>
@@ -5136,7 +5868,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="21">
+    <row r="304" spans="1:4" ht="21">
+      <c r="A304">
+        <v>9</v>
+      </c>
       <c r="B304" s="5" t="s">
         <v>284</v>
       </c>
@@ -5147,7 +5882,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="21">
+    <row r="305" spans="1:4" ht="21">
+      <c r="A305">
+        <v>10</v>
+      </c>
       <c r="B305" s="5" t="s">
         <v>284</v>
       </c>
@@ -5158,7 +5896,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="21">
+    <row r="306" spans="1:4" ht="21">
+      <c r="A306">
+        <v>11</v>
+      </c>
       <c r="B306" s="5" t="s">
         <v>284</v>
       </c>
@@ -5169,7 +5910,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="21">
+    <row r="307" spans="1:4" ht="21">
+      <c r="A307">
+        <v>12</v>
+      </c>
       <c r="B307" s="5" t="s">
         <v>284</v>
       </c>
@@ -5180,7 +5924,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="21">
+    <row r="308" spans="1:4" ht="21">
+      <c r="A308">
+        <v>13</v>
+      </c>
       <c r="B308" s="5" t="s">
         <v>284</v>
       </c>
@@ -5191,7 +5938,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="21">
+    <row r="309" spans="1:4" ht="21">
+      <c r="A309">
+        <v>14</v>
+      </c>
       <c r="B309" s="5" t="s">
         <v>284</v>
       </c>
@@ -5202,7 +5952,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="21">
+    <row r="310" spans="1:4" ht="21">
+      <c r="A310">
+        <v>15</v>
+      </c>
       <c r="B310" s="5" t="s">
         <v>284</v>
       </c>
@@ -5213,7 +5966,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="21">
+    <row r="311" spans="1:4" ht="21">
+      <c r="A311">
+        <v>16</v>
+      </c>
       <c r="B311" s="5" t="s">
         <v>284</v>
       </c>
@@ -5224,7 +5980,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="21">
+    <row r="312" spans="1:4" ht="21">
+      <c r="A312">
+        <v>17</v>
+      </c>
       <c r="B312" s="5" t="s">
         <v>284</v>
       </c>
@@ -5235,7 +5994,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="21">
+    <row r="313" spans="1:4" ht="21">
+      <c r="A313">
+        <v>18</v>
+      </c>
       <c r="B313" s="5" t="s">
         <v>284</v>
       </c>
@@ -5246,7 +6008,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="21">
+    <row r="314" spans="1:4" ht="21">
+      <c r="A314">
+        <v>19</v>
+      </c>
       <c r="B314" s="5" t="s">
         <v>284</v>
       </c>
@@ -5257,7 +6022,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="21">
+    <row r="315" spans="1:4" ht="21">
+      <c r="A315">
+        <v>20</v>
+      </c>
       <c r="B315" s="5" t="s">
         <v>284</v>
       </c>
@@ -5268,7 +6036,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="21">
+    <row r="316" spans="1:4" ht="21">
+      <c r="A316">
+        <v>21</v>
+      </c>
       <c r="B316" s="5" t="s">
         <v>284</v>
       </c>
@@ -5279,7 +6050,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="21">
+    <row r="317" spans="1:4" ht="21">
+      <c r="A317">
+        <v>22</v>
+      </c>
       <c r="B317" s="5" t="s">
         <v>284</v>
       </c>
@@ -5290,7 +6064,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="21">
+    <row r="318" spans="1:4" ht="21">
+      <c r="A318">
+        <v>23</v>
+      </c>
       <c r="B318" s="5" t="s">
         <v>284</v>
       </c>
@@ -5301,7 +6078,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="21">
+    <row r="319" spans="1:4" ht="21">
+      <c r="A319">
+        <v>24</v>
+      </c>
       <c r="B319" s="5" t="s">
         <v>284</v>
       </c>
@@ -5312,7 +6092,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="21">
+    <row r="320" spans="1:4" ht="21">
+      <c r="A320">
+        <v>25</v>
+      </c>
       <c r="B320" s="5" t="s">
         <v>284</v>
       </c>
@@ -5323,7 +6106,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="21">
+    <row r="321" spans="1:4" ht="21">
+      <c r="A321">
+        <v>26</v>
+      </c>
       <c r="B321" s="5" t="s">
         <v>284</v>
       </c>
@@ -5334,7 +6120,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="21">
+    <row r="322" spans="1:4" ht="21">
+      <c r="A322">
+        <v>27</v>
+      </c>
       <c r="B322" s="5" t="s">
         <v>284</v>
       </c>
@@ -5345,7 +6134,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="21">
+    <row r="323" spans="1:4" ht="21">
+      <c r="A323">
+        <v>28</v>
+      </c>
       <c r="B323" s="5" t="s">
         <v>284</v>
       </c>
@@ -5356,7 +6148,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="21">
+    <row r="324" spans="1:4" ht="21">
+      <c r="A324">
+        <v>29</v>
+      </c>
       <c r="B324" s="5" t="s">
         <v>284</v>
       </c>
@@ -5367,7 +6162,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="21">
+    <row r="325" spans="1:4" ht="21">
+      <c r="A325">
+        <v>30</v>
+      </c>
       <c r="B325" s="5" t="s">
         <v>284</v>
       </c>
@@ -5378,7 +6176,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="21">
+    <row r="326" spans="1:4" ht="21">
+      <c r="A326">
+        <v>31</v>
+      </c>
       <c r="B326" s="5" t="s">
         <v>284</v>
       </c>
@@ -5389,7 +6190,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="21">
+    <row r="327" spans="1:4" ht="21">
+      <c r="A327">
+        <v>32</v>
+      </c>
       <c r="B327" s="5" t="s">
         <v>284</v>
       </c>
@@ -5400,7 +6204,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="21">
+    <row r="328" spans="1:4" ht="21">
+      <c r="A328">
+        <v>33</v>
+      </c>
       <c r="B328" s="5" t="s">
         <v>284</v>
       </c>
@@ -5411,7 +6218,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="21">
+    <row r="329" spans="1:4" ht="21">
+      <c r="A329">
+        <v>34</v>
+      </c>
       <c r="B329" s="5" t="s">
         <v>284</v>
       </c>
@@ -5422,7 +6232,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="21">
+    <row r="330" spans="1:4" ht="21">
+      <c r="A330">
+        <v>35</v>
+      </c>
       <c r="B330" s="5" t="s">
         <v>284</v>
       </c>
@@ -5433,7 +6246,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="21">
+    <row r="331" spans="1:4" ht="21">
+      <c r="A331">
+        <v>36</v>
+      </c>
       <c r="B331" s="5" t="s">
         <v>284</v>
       </c>
@@ -5444,7 +6260,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="21">
+    <row r="332" spans="1:4" ht="21">
+      <c r="A332">
+        <v>37</v>
+      </c>
       <c r="B332" s="5" t="s">
         <v>284</v>
       </c>
@@ -5455,7 +6274,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="21">
+    <row r="333" spans="1:4" ht="21">
+      <c r="A333">
+        <v>38</v>
+      </c>
       <c r="B333" s="5" t="s">
         <v>284</v>
       </c>
@@ -5466,15 +6288,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="21">
+    <row r="334" spans="1:4" ht="21">
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
-    <row r="335" spans="2:4" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="2:4" ht="21">
+    <row r="336" spans="1:4" ht="21">
+      <c r="A336">
+        <v>1</v>
+      </c>
       <c r="B336" s="8" t="s">
         <v>323</v>
       </c>
@@ -5485,7 +6310,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="21">
+    <row r="337" spans="1:4" ht="21">
+      <c r="A337">
+        <v>2</v>
+      </c>
       <c r="B337" s="8" t="s">
         <v>323</v>
       </c>
@@ -5496,7 +6324,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="21">
+    <row r="338" spans="1:4" ht="21">
+      <c r="A338">
+        <v>3</v>
+      </c>
       <c r="B338" s="8" t="s">
         <v>323</v>
       </c>
@@ -5507,7 +6338,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="21">
+    <row r="339" spans="1:4" ht="21">
+      <c r="A339">
+        <v>4</v>
+      </c>
       <c r="B339" s="8" t="s">
         <v>323</v>
       </c>
@@ -5518,7 +6352,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="21">
+    <row r="340" spans="1:4" ht="21">
+      <c r="A340">
+        <v>5</v>
+      </c>
       <c r="B340" s="8" t="s">
         <v>323</v>
       </c>
@@ -5529,7 +6366,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="21">
+    <row r="341" spans="1:4" ht="21">
+      <c r="A341">
+        <v>6</v>
+      </c>
       <c r="B341" s="8" t="s">
         <v>323</v>
       </c>
@@ -5540,7 +6380,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="21">
+    <row r="342" spans="1:4" ht="21">
+      <c r="A342">
+        <v>7</v>
+      </c>
       <c r="B342" s="8" t="s">
         <v>323</v>
       </c>
@@ -5551,7 +6394,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="21">
+    <row r="343" spans="1:4" ht="21">
+      <c r="A343">
+        <v>8</v>
+      </c>
       <c r="B343" s="8" t="s">
         <v>323</v>
       </c>
@@ -5562,7 +6408,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="21">
+    <row r="344" spans="1:4" ht="21">
+      <c r="A344">
+        <v>9</v>
+      </c>
       <c r="B344" s="8" t="s">
         <v>323</v>
       </c>
@@ -5573,7 +6422,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="21">
+    <row r="345" spans="1:4" ht="21">
+      <c r="A345">
+        <v>10</v>
+      </c>
       <c r="B345" s="8" t="s">
         <v>323</v>
       </c>
@@ -5584,7 +6436,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="21">
+    <row r="346" spans="1:4" ht="21">
+      <c r="A346">
+        <v>11</v>
+      </c>
       <c r="B346" s="8" t="s">
         <v>323</v>
       </c>
@@ -5595,7 +6450,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="21">
+    <row r="347" spans="1:4" ht="21">
+      <c r="A347">
+        <v>12</v>
+      </c>
       <c r="B347" s="8" t="s">
         <v>323</v>
       </c>
@@ -5606,7 +6464,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="21">
+    <row r="348" spans="1:4" ht="21">
+      <c r="A348">
+        <v>13</v>
+      </c>
       <c r="B348" s="8" t="s">
         <v>323</v>
       </c>
@@ -5617,7 +6478,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="21">
+    <row r="349" spans="1:4" ht="21">
+      <c r="A349">
+        <v>14</v>
+      </c>
       <c r="B349" s="8" t="s">
         <v>323</v>
       </c>
@@ -5628,7 +6492,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="21">
+    <row r="350" spans="1:4" ht="21">
+      <c r="A350">
+        <v>15</v>
+      </c>
       <c r="B350" s="8" t="s">
         <v>323</v>
       </c>
@@ -5639,7 +6506,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="21">
+    <row r="351" spans="1:4" ht="21">
+      <c r="A351">
+        <v>16</v>
+      </c>
       <c r="B351" s="8" t="s">
         <v>323</v>
       </c>
@@ -5650,7 +6520,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="21">
+    <row r="352" spans="1:4" ht="21">
+      <c r="A352">
+        <v>17</v>
+      </c>
       <c r="B352" s="8" t="s">
         <v>323</v>
       </c>
@@ -5661,7 +6534,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="21">
+    <row r="353" spans="1:4" ht="21">
+      <c r="A353">
+        <v>18</v>
+      </c>
       <c r="B353" s="8" t="s">
         <v>323</v>
       </c>
@@ -5672,15 +6548,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="21">
+    <row r="354" spans="1:4" ht="21">
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="2:4" ht="21">
+    <row r="355" spans="1:4" ht="21">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="2:4" ht="21">
+    <row r="356" spans="1:4" ht="21">
+      <c r="A356">
+        <v>1</v>
+      </c>
       <c r="B356" s="8" t="s">
         <v>342</v>
       </c>
@@ -5691,7 +6570,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="21">
+    <row r="357" spans="1:4" ht="21">
+      <c r="A357">
+        <v>2</v>
+      </c>
       <c r="B357" s="8" t="s">
         <v>342</v>
       </c>
@@ -5702,7 +6584,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="21">
+    <row r="358" spans="1:4" ht="21">
+      <c r="A358">
+        <v>3</v>
+      </c>
       <c r="B358" s="8" t="s">
         <v>342</v>
       </c>
@@ -5713,7 +6598,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="21">
+    <row r="359" spans="1:4" ht="21">
+      <c r="A359">
+        <v>4</v>
+      </c>
       <c r="B359" s="8" t="s">
         <v>342</v>
       </c>
@@ -5724,7 +6612,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="21">
+    <row r="360" spans="1:4" ht="21">
+      <c r="A360">
+        <v>5</v>
+      </c>
       <c r="B360" s="8" t="s">
         <v>342</v>
       </c>
@@ -5735,7 +6626,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="21">
+    <row r="361" spans="1:4" ht="21">
+      <c r="A361">
+        <v>6</v>
+      </c>
       <c r="B361" s="8" t="s">
         <v>342</v>
       </c>
@@ -5746,7 +6640,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="21">
+    <row r="362" spans="1:4" ht="21">
+      <c r="A362">
+        <v>7</v>
+      </c>
       <c r="B362" s="8" t="s">
         <v>342</v>
       </c>
@@ -5757,7 +6654,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="21">
+    <row r="363" spans="1:4" ht="21">
+      <c r="A363">
+        <v>8</v>
+      </c>
       <c r="B363" s="8" t="s">
         <v>342</v>
       </c>
@@ -5768,7 +6668,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="21">
+    <row r="364" spans="1:4" ht="21">
+      <c r="A364">
+        <v>9</v>
+      </c>
       <c r="B364" s="8" t="s">
         <v>342</v>
       </c>
@@ -5779,7 +6682,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="21">
+    <row r="365" spans="1:4" ht="21">
+      <c r="A365">
+        <v>10</v>
+      </c>
       <c r="B365" s="8" t="s">
         <v>342</v>
       </c>
@@ -5790,7 +6696,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="21">
+    <row r="366" spans="1:4" ht="21">
+      <c r="A366">
+        <v>11</v>
+      </c>
       <c r="B366" s="8" t="s">
         <v>342</v>
       </c>
@@ -5801,7 +6710,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="21">
+    <row r="367" spans="1:4" ht="21">
+      <c r="A367">
+        <v>12</v>
+      </c>
       <c r="B367" s="8" t="s">
         <v>342</v>
       </c>
@@ -5812,7 +6724,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="21">
+    <row r="368" spans="1:4" ht="21">
+      <c r="A368">
+        <v>13</v>
+      </c>
       <c r="B368" s="8" t="s">
         <v>342</v>
       </c>
@@ -5823,7 +6738,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="21">
+    <row r="369" spans="1:4" ht="21">
+      <c r="A369">
+        <v>14</v>
+      </c>
       <c r="B369" s="8" t="s">
         <v>342</v>
       </c>
@@ -5834,7 +6752,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="21">
+    <row r="370" spans="1:4" ht="21">
+      <c r="A370">
+        <v>15</v>
+      </c>
       <c r="B370" s="8" t="s">
         <v>342</v>
       </c>
@@ -5845,7 +6766,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="21">
+    <row r="371" spans="1:4" ht="21">
+      <c r="A371">
+        <v>16</v>
+      </c>
       <c r="B371" s="8" t="s">
         <v>342</v>
       </c>
@@ -5856,7 +6780,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="21">
+    <row r="372" spans="1:4" ht="21">
+      <c r="A372">
+        <v>17</v>
+      </c>
       <c r="B372" s="8" t="s">
         <v>342</v>
       </c>
@@ -5867,7 +6794,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="21">
+    <row r="373" spans="1:4" ht="21">
+      <c r="A373">
+        <v>18</v>
+      </c>
       <c r="B373" s="8" t="s">
         <v>342</v>
       </c>
@@ -5878,7 +6808,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="21">
+    <row r="374" spans="1:4" ht="21">
+      <c r="A374">
+        <v>19</v>
+      </c>
       <c r="B374" s="8" t="s">
         <v>342</v>
       </c>
@@ -5889,7 +6822,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="21">
+    <row r="375" spans="1:4" ht="21">
+      <c r="A375">
+        <v>20</v>
+      </c>
       <c r="B375" s="8" t="s">
         <v>342</v>
       </c>
@@ -5900,7 +6836,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="21">
+    <row r="376" spans="1:4" ht="21">
+      <c r="A376">
+        <v>21</v>
+      </c>
       <c r="B376" s="8" t="s">
         <v>342</v>
       </c>
@@ -5911,7 +6850,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="21">
+    <row r="377" spans="1:4" ht="21">
+      <c r="A377">
+        <v>22</v>
+      </c>
       <c r="B377" s="8" t="s">
         <v>342</v>
       </c>
@@ -5922,7 +6864,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="21">
+    <row r="378" spans="1:4" ht="21">
+      <c r="A378">
+        <v>23</v>
+      </c>
       <c r="B378" s="8" t="s">
         <v>342</v>
       </c>
@@ -5933,7 +6878,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="21">
+    <row r="379" spans="1:4" ht="21">
+      <c r="A379">
+        <v>24</v>
+      </c>
       <c r="B379" s="8" t="s">
         <v>342</v>
       </c>
@@ -5944,7 +6892,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="21">
+    <row r="380" spans="1:4" ht="21">
+      <c r="A380">
+        <v>25</v>
+      </c>
       <c r="B380" s="8" t="s">
         <v>342</v>
       </c>
@@ -5955,7 +6906,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="21">
+    <row r="381" spans="1:4" ht="21">
+      <c r="A381">
+        <v>26</v>
+      </c>
       <c r="B381" s="8" t="s">
         <v>342</v>
       </c>
@@ -5966,7 +6920,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="21">
+    <row r="382" spans="1:4" ht="21">
+      <c r="A382">
+        <v>27</v>
+      </c>
       <c r="B382" s="8" t="s">
         <v>342</v>
       </c>
@@ -5977,7 +6934,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="21">
+    <row r="383" spans="1:4" ht="21">
+      <c r="A383">
+        <v>28</v>
+      </c>
       <c r="B383" s="8" t="s">
         <v>342</v>
       </c>
@@ -5988,7 +6948,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="21">
+    <row r="384" spans="1:4" ht="21">
+      <c r="A384">
+        <v>29</v>
+      </c>
       <c r="B384" s="8" t="s">
         <v>342</v>
       </c>
@@ -5999,7 +6962,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="2:4" ht="21">
+    <row r="385" spans="1:4" ht="21">
+      <c r="A385">
+        <v>30</v>
+      </c>
       <c r="B385" s="8" t="s">
         <v>342</v>
       </c>
@@ -6010,7 +6976,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="2:4" ht="21">
+    <row r="386" spans="1:4" ht="21">
+      <c r="A386">
+        <v>31</v>
+      </c>
       <c r="B386" s="8" t="s">
         <v>342</v>
       </c>
@@ -6021,7 +6990,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="2:4" ht="21">
+    <row r="387" spans="1:4" ht="21">
+      <c r="A387">
+        <v>32</v>
+      </c>
       <c r="B387" s="8" t="s">
         <v>342</v>
       </c>
@@ -6032,7 +7004,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="2:4" ht="21">
+    <row r="388" spans="1:4" ht="21">
+      <c r="A388">
+        <v>33</v>
+      </c>
       <c r="B388" s="8" t="s">
         <v>342</v>
       </c>
@@ -6043,7 +7018,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="2:4" ht="21">
+    <row r="389" spans="1:4" ht="21">
+      <c r="A389">
+        <v>34</v>
+      </c>
       <c r="B389" s="8" t="s">
         <v>342</v>
       </c>
@@ -6054,7 +7032,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="2:4" ht="21">
+    <row r="390" spans="1:4" ht="21">
+      <c r="A390">
+        <v>35</v>
+      </c>
       <c r="B390" s="8" t="s">
         <v>342</v>
       </c>
@@ -6065,7 +7046,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="21">
+    <row r="391" spans="1:4" ht="21">
+      <c r="A391">
+        <v>36</v>
+      </c>
       <c r="B391" s="8" t="s">
         <v>342</v>
       </c>
@@ -6076,7 +7060,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="2:4" ht="21">
+    <row r="392" spans="1:4" ht="21">
+      <c r="A392">
+        <v>37</v>
+      </c>
       <c r="B392" s="8" t="s">
         <v>342</v>
       </c>
@@ -6087,7 +7074,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="2:4" ht="21">
+    <row r="393" spans="1:4" ht="21">
+      <c r="A393">
+        <v>38</v>
+      </c>
       <c r="B393" s="8" t="s">
         <v>342</v>
       </c>
@@ -6098,7 +7088,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="2:4" ht="21">
+    <row r="394" spans="1:4" ht="21">
+      <c r="A394">
+        <v>39</v>
+      </c>
       <c r="B394" s="8" t="s">
         <v>342</v>
       </c>
@@ -6109,7 +7102,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="2:4" ht="21">
+    <row r="395" spans="1:4" ht="21">
+      <c r="A395">
+        <v>40</v>
+      </c>
       <c r="B395" s="8" t="s">
         <v>342</v>
       </c>
@@ -6120,7 +7116,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="2:4" ht="21">
+    <row r="396" spans="1:4" ht="21">
+      <c r="A396">
+        <v>41</v>
+      </c>
       <c r="B396" s="8" t="s">
         <v>342</v>
       </c>
@@ -6131,7 +7130,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="2:4" ht="21">
+    <row r="397" spans="1:4" ht="21">
+      <c r="A397">
+        <v>42</v>
+      </c>
       <c r="B397" s="8" t="s">
         <v>342</v>
       </c>
@@ -6142,7 +7144,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="2:4" ht="21">
+    <row r="398" spans="1:4" ht="21">
+      <c r="A398">
+        <v>43</v>
+      </c>
       <c r="B398" s="8" t="s">
         <v>342</v>
       </c>
@@ -6153,7 +7158,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="2:4" ht="21">
+    <row r="399" spans="1:4" ht="21">
+      <c r="A399">
+        <v>44</v>
+      </c>
       <c r="B399" s="8" t="s">
         <v>342</v>
       </c>
@@ -6164,15 +7172,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="2:4" ht="21">
+    <row r="400" spans="1:4" ht="21">
       <c r="C400" s="7"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="2:4" ht="21">
+    <row r="401" spans="1:4" ht="21">
       <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="2:4" ht="21">
+    <row r="402" spans="1:4" ht="21">
+      <c r="A402">
+        <v>1</v>
+      </c>
       <c r="B402" s="8" t="s">
         <v>386</v>
       </c>
@@ -6183,7 +7194,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="21">
+    <row r="403" spans="1:4" ht="21">
+      <c r="A403">
+        <v>2</v>
+      </c>
       <c r="B403" s="8" t="s">
         <v>386</v>
       </c>
@@ -6194,7 +7208,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="21">
+    <row r="404" spans="1:4" ht="21">
+      <c r="A404">
+        <v>3</v>
+      </c>
       <c r="B404" s="8" t="s">
         <v>386</v>
       </c>
@@ -6205,7 +7222,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="21">
+    <row r="405" spans="1:4" ht="21">
+      <c r="A405">
+        <v>4</v>
+      </c>
       <c r="B405" s="8" t="s">
         <v>386</v>
       </c>
@@ -6216,7 +7236,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="21">
+    <row r="406" spans="1:4" ht="21">
+      <c r="A406">
+        <v>5</v>
+      </c>
       <c r="B406" s="8" t="s">
         <v>386</v>
       </c>
@@ -6227,7 +7250,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="21">
+    <row r="407" spans="1:4" ht="21">
+      <c r="A407">
+        <v>6</v>
+      </c>
       <c r="B407" s="8" t="s">
         <v>386</v>
       </c>
@@ -6238,15 +7264,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="2:4" ht="21">
+    <row r="408" spans="1:4" ht="21">
       <c r="C408" s="7"/>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="2:4" ht="21">
+    <row r="409" spans="1:4" ht="21">
       <c r="C409" s="7"/>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="2:4" ht="21">
+    <row r="410" spans="1:4" ht="21">
+      <c r="A410">
+        <v>1</v>
+      </c>
       <c r="B410" s="5" t="s">
         <v>392</v>
       </c>
@@ -6257,7 +7286,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="2:4" ht="21">
+    <row r="411" spans="1:4" ht="21">
+      <c r="A411">
+        <v>2</v>
+      </c>
       <c r="B411" s="5" t="s">
         <v>392</v>
       </c>
@@ -6268,7 +7300,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="2:4" ht="21">
+    <row r="412" spans="1:4" ht="21">
+      <c r="A412">
+        <v>3</v>
+      </c>
       <c r="B412" s="5" t="s">
         <v>392</v>
       </c>
@@ -6279,7 +7314,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="2:4" ht="21">
+    <row r="413" spans="1:4" ht="21">
+      <c r="A413">
+        <v>4</v>
+      </c>
       <c r="B413" s="5" t="s">
         <v>392</v>
       </c>
@@ -6290,7 +7328,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="2:4" ht="21">
+    <row r="414" spans="1:4" ht="21">
+      <c r="A414">
+        <v>5</v>
+      </c>
       <c r="B414" s="5" t="s">
         <v>392</v>
       </c>
@@ -6301,7 +7342,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="2:4" ht="21">
+    <row r="415" spans="1:4" ht="21">
+      <c r="A415">
+        <v>6</v>
+      </c>
       <c r="B415" s="5" t="s">
         <v>392</v>
       </c>
@@ -6312,7 +7356,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="2:4" ht="21">
+    <row r="416" spans="1:4" ht="21">
+      <c r="A416">
+        <v>7</v>
+      </c>
       <c r="B416" s="5" t="s">
         <v>392</v>
       </c>
@@ -6323,7 +7370,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="2:4" ht="21">
+    <row r="417" spans="1:4" ht="21">
+      <c r="A417">
+        <v>8</v>
+      </c>
       <c r="B417" s="5" t="s">
         <v>392</v>
       </c>
@@ -6334,7 +7384,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="2:4" ht="21">
+    <row r="418" spans="1:4" ht="21">
+      <c r="A418">
+        <v>9</v>
+      </c>
       <c r="B418" s="5" t="s">
         <v>392</v>
       </c>
@@ -6345,7 +7398,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="2:4" ht="21">
+    <row r="419" spans="1:4" ht="21">
+      <c r="A419">
+        <v>10</v>
+      </c>
       <c r="B419" s="5" t="s">
         <v>392</v>
       </c>
@@ -6356,7 +7412,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="2:4" ht="21">
+    <row r="420" spans="1:4" ht="21">
+      <c r="A420">
+        <v>11</v>
+      </c>
       <c r="B420" s="5" t="s">
         <v>392</v>
       </c>
@@ -6367,7 +7426,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="2:4" ht="21">
+    <row r="421" spans="1:4" ht="21">
+      <c r="A421">
+        <v>12</v>
+      </c>
       <c r="B421" s="5" t="s">
         <v>392</v>
       </c>
@@ -6378,7 +7440,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="2:4" ht="21">
+    <row r="422" spans="1:4" ht="21">
+      <c r="A422">
+        <v>13</v>
+      </c>
       <c r="B422" s="5" t="s">
         <v>392</v>
       </c>
@@ -6389,7 +7454,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="2:4" ht="21">
+    <row r="423" spans="1:4" ht="21">
+      <c r="A423">
+        <v>14</v>
+      </c>
       <c r="B423" s="5" t="s">
         <v>392</v>
       </c>
@@ -6400,7 +7468,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="2:4" ht="21">
+    <row r="424" spans="1:4" ht="21">
+      <c r="A424">
+        <v>15</v>
+      </c>
       <c r="B424" s="5" t="s">
         <v>392</v>
       </c>
@@ -6411,7 +7482,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="2:4" ht="21">
+    <row r="425" spans="1:4" ht="21">
+      <c r="A425">
+        <v>16</v>
+      </c>
       <c r="B425" s="5" t="s">
         <v>392</v>
       </c>
@@ -6422,7 +7496,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="2:4" ht="21">
+    <row r="426" spans="1:4" ht="21">
+      <c r="A426">
+        <v>17</v>
+      </c>
       <c r="B426" s="5" t="s">
         <v>392</v>
       </c>
@@ -6433,7 +7510,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="2:4" ht="21">
+    <row r="427" spans="1:4" ht="21">
+      <c r="A427">
+        <v>18</v>
+      </c>
       <c r="B427" s="5" t="s">
         <v>392</v>
       </c>
@@ -6444,7 +7524,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="2:4" ht="21">
+    <row r="428" spans="1:4" ht="21">
+      <c r="A428">
+        <v>19</v>
+      </c>
       <c r="B428" s="5" t="s">
         <v>392</v>
       </c>
@@ -6455,7 +7538,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="2:4" ht="21">
+    <row r="429" spans="1:4" ht="21">
+      <c r="A429">
+        <v>20</v>
+      </c>
       <c r="B429" s="5" t="s">
         <v>392</v>
       </c>
@@ -6466,7 +7552,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="2:4" ht="21">
+    <row r="430" spans="1:4" ht="21">
+      <c r="A430">
+        <v>21</v>
+      </c>
       <c r="B430" s="5" t="s">
         <v>392</v>
       </c>
@@ -6477,7 +7566,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="2:4" ht="21">
+    <row r="431" spans="1:4" ht="21">
+      <c r="A431">
+        <v>22</v>
+      </c>
       <c r="B431" s="5" t="s">
         <v>392</v>
       </c>
@@ -6488,7 +7580,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="2:4" ht="21">
+    <row r="432" spans="1:4" ht="21">
+      <c r="A432">
+        <v>23</v>
+      </c>
       <c r="B432" s="5" t="s">
         <v>392</v>
       </c>
@@ -6499,7 +7594,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="2:4" ht="21">
+    <row r="433" spans="1:4" ht="21">
+      <c r="A433">
+        <v>24</v>
+      </c>
       <c r="B433" s="5" t="s">
         <v>392</v>
       </c>
@@ -6510,7 +7608,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="2:4" ht="21">
+    <row r="434" spans="1:4" ht="21">
+      <c r="A434">
+        <v>25</v>
+      </c>
       <c r="B434" s="5" t="s">
         <v>392</v>
       </c>
@@ -6521,7 +7622,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="2:4" ht="21">
+    <row r="435" spans="1:4" ht="21">
+      <c r="A435">
+        <v>26</v>
+      </c>
       <c r="B435" s="5" t="s">
         <v>392</v>
       </c>
@@ -6532,7 +7636,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="2:4" ht="21">
+    <row r="436" spans="1:4" ht="21">
+      <c r="A436">
+        <v>27</v>
+      </c>
       <c r="B436" s="5" t="s">
         <v>392</v>
       </c>
@@ -6543,7 +7650,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="2:4" ht="21">
+    <row r="437" spans="1:4" ht="21">
+      <c r="A437">
+        <v>28</v>
+      </c>
       <c r="B437" s="5" t="s">
         <v>392</v>
       </c>
@@ -6554,7 +7664,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="2:4" ht="21">
+    <row r="438" spans="1:4" ht="21">
+      <c r="A438">
+        <v>29</v>
+      </c>
       <c r="B438" s="5" t="s">
         <v>392</v>
       </c>
@@ -6565,7 +7678,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="2:4" ht="21">
+    <row r="439" spans="1:4" ht="21">
+      <c r="A439">
+        <v>30</v>
+      </c>
       <c r="B439" s="5" t="s">
         <v>392</v>
       </c>
@@ -6576,7 +7692,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="2:4" ht="21">
+    <row r="440" spans="1:4" ht="21">
+      <c r="A440">
+        <v>31</v>
+      </c>
       <c r="B440" s="5" t="s">
         <v>392</v>
       </c>
@@ -6587,7 +7706,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="21">
+    <row r="441" spans="1:4" ht="21">
+      <c r="A441">
+        <v>32</v>
+      </c>
       <c r="B441" s="5" t="s">
         <v>392</v>
       </c>
@@ -6598,7 +7720,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="2:4" ht="21">
+    <row r="442" spans="1:4" ht="21">
+      <c r="A442">
+        <v>33</v>
+      </c>
       <c r="B442" s="5" t="s">
         <v>392</v>
       </c>
@@ -6609,7 +7734,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="2:4" ht="21">
+    <row r="443" spans="1:4" ht="21">
+      <c r="A443">
+        <v>34</v>
+      </c>
       <c r="B443" s="5" t="s">
         <v>392</v>
       </c>
@@ -6620,7 +7748,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="2:4" ht="21">
+    <row r="444" spans="1:4" ht="21">
+      <c r="A444">
+        <v>35</v>
+      </c>
       <c r="B444" s="5" t="s">
         <v>392</v>
       </c>
@@ -6631,7 +7762,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="21">
+    <row r="445" spans="1:4" ht="21">
+      <c r="A445">
+        <v>36</v>
+      </c>
       <c r="B445" s="5" t="s">
         <v>392</v>
       </c>
@@ -6642,7 +7776,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="2:4" ht="21">
+    <row r="446" spans="1:4" ht="21">
+      <c r="A446">
+        <v>37</v>
+      </c>
       <c r="B446" s="5" t="s">
         <v>392</v>
       </c>
@@ -6653,7 +7790,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="2:4" ht="21">
+    <row r="447" spans="1:4" ht="21">
+      <c r="A447">
+        <v>38</v>
+      </c>
       <c r="B447" s="5" t="s">
         <v>392</v>
       </c>
@@ -6664,7 +7804,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="2:4" ht="21">
+    <row r="448" spans="1:4" ht="21">
+      <c r="A448">
+        <v>39</v>
+      </c>
       <c r="B448" s="5" t="s">
         <v>392</v>
       </c>
@@ -6675,7 +7818,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="2:4" ht="21">
+    <row r="449" spans="1:4" ht="21">
+      <c r="A449">
+        <v>40</v>
+      </c>
       <c r="B449" s="5" t="s">
         <v>392</v>
       </c>
@@ -6686,7 +7832,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="2:4" ht="21">
+    <row r="450" spans="1:4" ht="21">
+      <c r="A450">
+        <v>41</v>
+      </c>
       <c r="B450" s="5" t="s">
         <v>392</v>
       </c>
@@ -6697,7 +7846,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="2:4" ht="21">
+    <row r="451" spans="1:4" ht="21">
+      <c r="A451">
+        <v>42</v>
+      </c>
       <c r="B451" s="5" t="s">
         <v>392</v>
       </c>
@@ -6708,7 +7860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="2:4" ht="21">
+    <row r="452" spans="1:4" ht="21">
+      <c r="A452">
+        <v>43</v>
+      </c>
       <c r="B452" s="5" t="s">
         <v>392</v>
       </c>
@@ -6719,7 +7874,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="2:4" ht="21">
+    <row r="453" spans="1:4" ht="21">
+      <c r="A453">
+        <v>44</v>
+      </c>
       <c r="B453" s="5" t="s">
         <v>392</v>
       </c>
@@ -6730,7 +7888,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="2:4" ht="21">
+    <row r="454" spans="1:4" ht="21">
+      <c r="A454">
+        <v>45</v>
+      </c>
       <c r="B454" s="5" t="s">
         <v>392</v>
       </c>
@@ -6741,7 +7902,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="2:4" ht="21">
+    <row r="455" spans="1:4" ht="21">
+      <c r="A455">
+        <v>46</v>
+      </c>
       <c r="B455" s="5" t="s">
         <v>392</v>
       </c>
@@ -6752,7 +7916,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="2:4" ht="21">
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456">
+        <v>47</v>
+      </c>
       <c r="B456" s="5" t="s">
         <v>392</v>
       </c>
@@ -6763,7 +7930,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="2:4" ht="21">
+    <row r="457" spans="1:4" ht="21">
+      <c r="A457">
+        <v>48</v>
+      </c>
       <c r="B457" s="5" t="s">
         <v>392</v>
       </c>
@@ -6774,7 +7944,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="2:4" ht="21">
+    <row r="458" spans="1:4" ht="21">
+      <c r="A458">
+        <v>49</v>
+      </c>
       <c r="B458" s="5" t="s">
         <v>392</v>
       </c>
@@ -6785,7 +7958,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="2:4" ht="21">
+    <row r="459" spans="1:4" ht="21">
+      <c r="A459">
+        <v>50</v>
+      </c>
       <c r="B459" s="5" t="s">
         <v>392</v>
       </c>
@@ -6796,7 +7972,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="2:4" ht="21">
+    <row r="460" spans="1:4" ht="21">
+      <c r="A460">
+        <v>51</v>
+      </c>
       <c r="B460" s="5" t="s">
         <v>392</v>
       </c>
@@ -6807,7 +7986,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="2:4" ht="21">
+    <row r="461" spans="1:4" ht="21">
+      <c r="A461">
+        <v>52</v>
+      </c>
       <c r="B461" s="5" t="s">
         <v>392</v>
       </c>
@@ -6818,7 +8000,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="2:4" ht="21">
+    <row r="462" spans="1:4" ht="21">
+      <c r="A462">
+        <v>53</v>
+      </c>
       <c r="B462" s="5" t="s">
         <v>392</v>
       </c>
@@ -6829,7 +8014,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="2:4" ht="21">
+    <row r="463" spans="1:4" ht="21">
+      <c r="A463">
+        <v>54</v>
+      </c>
       <c r="B463" s="5" t="s">
         <v>392</v>
       </c>
@@ -6840,7 +8028,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="2:4" ht="21">
+    <row r="464" spans="1:4" ht="21">
+      <c r="A464">
+        <v>55</v>
+      </c>
       <c r="B464" s="5" t="s">
         <v>392</v>
       </c>
@@ -6851,7 +8042,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="2:4" ht="21">
+    <row r="465" spans="1:4" ht="21">
+      <c r="A465">
+        <v>56</v>
+      </c>
       <c r="B465" s="5" t="s">
         <v>392</v>
       </c>
@@ -6862,7 +8056,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="2:4" ht="21">
+    <row r="466" spans="1:4" ht="21">
+      <c r="A466">
+        <v>57</v>
+      </c>
       <c r="B466" s="5" t="s">
         <v>392</v>
       </c>
@@ -6873,7 +8070,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="2:4" ht="21">
+    <row r="467" spans="1:4" ht="21">
+      <c r="A467">
+        <v>58</v>
+      </c>
       <c r="B467" s="5" t="s">
         <v>392</v>
       </c>
@@ -6884,7 +8084,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="2:4" ht="21">
+    <row r="468" spans="1:4" ht="21">
+      <c r="A468">
+        <v>59</v>
+      </c>
       <c r="B468" s="5" t="s">
         <v>392</v>
       </c>
@@ -6895,7 +8098,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="2:4" ht="21">
+    <row r="469" spans="1:4" ht="21">
+      <c r="A469">
+        <v>60</v>
+      </c>
       <c r="B469" s="5" t="s">
         <v>392</v>
       </c>
@@ -6906,16 +8112,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="2:4" ht="21">
+    <row r="470" spans="1:4" ht="21">
       <c r="C470" s="7"/>
       <c r="D470" s="4"/>
     </row>
-    <row r="471" spans="2:4" ht="21">
+    <row r="471" spans="1:4" ht="21">
       <c r="B471" s="8"/>
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="2:4" ht="21">
+    <row r="472" spans="1:4" ht="21">
+      <c r="A472">
+        <v>1</v>
+      </c>
       <c r="B472" s="5" t="s">
         <v>452</v>
       </c>
@@ -6926,7 +8135,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="2:4" ht="21">
+    <row r="473" spans="1:4" ht="21">
+      <c r="A473">
+        <v>2</v>
+      </c>
       <c r="B473" s="5" t="s">
         <v>452</v>
       </c>
@@ -6937,7 +8149,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="2:4" ht="21">
+    <row r="474" spans="1:4" ht="21">
+      <c r="A474">
+        <v>3</v>
+      </c>
       <c r="B474" s="5" t="s">
         <v>452</v>
       </c>
@@ -6948,7 +8163,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="2:4" ht="21">
+    <row r="475" spans="1:4" ht="21">
+      <c r="A475">
+        <v>4</v>
+      </c>
       <c r="B475" s="5" t="s">
         <v>452</v>
       </c>
@@ -6959,7 +8177,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="2:4" ht="21">
+    <row r="476" spans="1:4" ht="21">
+      <c r="A476">
+        <v>5</v>
+      </c>
       <c r="B476" s="5" t="s">
         <v>452</v>
       </c>
@@ -6970,7 +8191,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="2:4" ht="21">
+    <row r="477" spans="1:4" ht="21">
+      <c r="A477">
+        <v>6</v>
+      </c>
       <c r="B477" s="5" t="s">
         <v>452</v>
       </c>
@@ -6981,7 +8205,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="2:4" ht="21">
+    <row r="478" spans="1:4" ht="21">
+      <c r="A478">
+        <v>7</v>
+      </c>
       <c r="B478" s="5" t="s">
         <v>452</v>
       </c>
@@ -6992,7 +8219,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="2:4" ht="21">
+    <row r="479" spans="1:4" ht="21">
+      <c r="A479">
+        <v>8</v>
+      </c>
       <c r="B479" s="5" t="s">
         <v>452</v>
       </c>
@@ -7003,7 +8233,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="2:4" ht="21">
+    <row r="480" spans="1:4" ht="21">
+      <c r="A480">
+        <v>9</v>
+      </c>
       <c r="B480" s="5" t="s">
         <v>452</v>
       </c>
@@ -7014,7 +8247,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="2:4" ht="21">
+    <row r="481" spans="1:4" ht="21">
+      <c r="A481">
+        <v>10</v>
+      </c>
       <c r="B481" s="5" t="s">
         <v>452</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1417,6 +1417,9 @@
   </si>
   <si>
     <t>Write a program to  Remove loop in a linked list.</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473"/>
+    <sheetView tabSelected="1" topLeftCell="B465" workbookViewId="0">
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8132,7 +8135,7 @@
         <v>453</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="21">
@@ -8160,7 +8163,7 @@
         <v>455</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="21">
@@ -8188,7 +8191,7 @@
         <v>457</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="21">
@@ -8699,16 +8702,16 @@
     <hyperlink ref="C472" r:id="rId434"/>
     <hyperlink ref="C473" r:id="rId435"/>
     <hyperlink ref="C474" r:id="rId436"/>
-    <hyperlink ref="C475" r:id="rId437"/>
-    <hyperlink ref="C476" r:id="rId438"/>
-    <hyperlink ref="C477" r:id="rId439"/>
-    <hyperlink ref="C478" r:id="rId440"/>
-    <hyperlink ref="C481" r:id="rId441"/>
-    <hyperlink ref="C479" r:id="rId442"/>
-    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="C356" r:id="rId444"/>
-    <hyperlink ref="C2" r:id="rId445"/>
-    <hyperlink ref="C18" r:id="rId446"/>
+    <hyperlink ref="C356" r:id="rId437"/>
+    <hyperlink ref="C2" r:id="rId438"/>
+    <hyperlink ref="C18" r:id="rId439"/>
+    <hyperlink ref="C480" r:id="rId440" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="C479" r:id="rId441"/>
+    <hyperlink ref="C481" r:id="rId442"/>
+    <hyperlink ref="C478" r:id="rId443"/>
+    <hyperlink ref="C477" r:id="rId444"/>
+    <hyperlink ref="C476" r:id="rId445"/>
+    <hyperlink ref="C475" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
